--- a/media/excel_templates/export/evaluations_7_S1-2023-2024.xlsx
+++ b/media/excel_templates/export/evaluations_7_S1-2023-2024.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="evaluation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="evaluation_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="evaluation_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="evaluation_3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -16,7 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <name val="Arial"/>
@@ -114,7 +119,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -210,6 +215,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1662,4 +1670,4027 @@
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup orientation="portrait" paperSize="9" scale="35" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:P319"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="37.57" customWidth="1" style="16" min="1" max="1"/>
+    <col width="34.43" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.43" customWidth="1" style="16" min="3" max="3"/>
+    <col width="17.59" customWidth="1" style="16" min="4" max="4"/>
+    <col width="15.42" customWidth="1" style="16" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.75" customHeight="1" s="17">
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>annee :</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="21" t="n"/>
+      <c r="E1" s="21" t="n"/>
+      <c r="F1" s="21" t="n"/>
+      <c r="G1" s="21" t="n"/>
+      <c r="H1" s="21" t="n"/>
+      <c r="I1" s="21" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="21" t="n"/>
+      <c r="L1" s="21" t="n"/>
+      <c r="M1" s="21" t="n"/>
+      <c r="N1" s="21" t="n"/>
+      <c r="O1" s="21" t="n"/>
+      <c r="P1" s="21" t="n"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" s="17">
+      <c r="A2" s="18" t="inlineStr">
+        <is>
+          <t>semestre :</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="21" t="n"/>
+      <c r="F2" s="21" t="n"/>
+      <c r="G2" s="21" t="n"/>
+      <c r="H2" s="21" t="n"/>
+      <c r="I2" s="21" t="n"/>
+      <c r="J2" s="21" t="n"/>
+      <c r="K2" s="21" t="n"/>
+      <c r="L2" s="21" t="n"/>
+      <c r="M2" s="21" t="n"/>
+      <c r="N2" s="21" t="n"/>
+      <c r="O2" s="21" t="n"/>
+      <c r="P2" s="21" t="n"/>
+    </row>
+    <row r="3" ht="21.75" customHeight="1" s="17">
+      <c r="A3" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">matière : </t>
+        </is>
+      </c>
+      <c r="B3" s="23" t="inlineStr">
+        <is>
+          <t>Base de données 1</t>
+        </is>
+      </c>
+      <c r="C3" s="24" t="n"/>
+    </row>
+    <row r="4" ht="21.75" customHeight="1" s="17">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est une evaluation : </t>
+        </is>
+      </c>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="inlineStr">
+        <is>
+          <t>Oui ou Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date : </t>
+        </is>
+      </c>
+      <c r="B5" s="33" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C5" s="26" t="n"/>
+    </row>
+    <row r="6" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libelle : </t>
+        </is>
+      </c>
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>Examen BD</t>
+        </is>
+      </c>
+      <c r="C6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pondération : </t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="26" t="n"/>
+    </row>
+    <row r="8" ht="21" customFormat="1" customHeight="1" s="27">
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="26" t="n"/>
+    </row>
+    <row r="9" ht="21" customFormat="1" customHeight="1" s="27">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C9" s="30" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="17">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ABDOULAYE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aliya</t>
+        </is>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="17">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADJEBADJA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abdoul-chakour</t>
+        </is>
+      </c>
+      <c r="C11" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="17">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AGAO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Akila Rois</t>
+        </is>
+      </c>
+      <c r="C12" s="32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="17">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AKPARO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Olivier</t>
+        </is>
+      </c>
+      <c r="C13" s="32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="17">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMONA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Birewa Audrey</t>
+        </is>
+      </c>
+      <c r="C14" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="17">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AROUNA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ramdane</t>
+        </is>
+      </c>
+      <c r="C15" s="32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="17">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Traore Hannatou</t>
+        </is>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BAH-TOURE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fatiha</t>
+        </is>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="17">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BOKOPOLO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yahliou Phinéas</t>
+        </is>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="17">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DADO </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Koffi Jean Socrate</t>
+        </is>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="17">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KOUTEMA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ditoma</t>
+        </is>
+      </c>
+      <c r="C20" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="17">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NAZEGA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Youssif</t>
+        </is>
+      </c>
+      <c r="C21" s="32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="17">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NONDOOU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Essoronda</t>
+        </is>
+      </c>
+      <c r="C22" s="32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="17">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>OULA BARNA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Moubarak</t>
+        </is>
+      </c>
+      <c r="C23" s="32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="17">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PAKONDE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mazalou Célia</t>
+        </is>
+      </c>
+      <c r="C24" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="17">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TCHALA TALAKI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kibandou Stéphanie</t>
+        </is>
+      </c>
+      <c r="C25" s="32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="17">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TCHATCHAW </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gnénam Silas</t>
+        </is>
+      </c>
+      <c r="C26" s="32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="17">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TEOURI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fridaouss</t>
+        </is>
+      </c>
+      <c r="C27" s="32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="17">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TRAORE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>El-imrane Adjibola</t>
+        </is>
+      </c>
+      <c r="C28" s="32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="17">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>YERIMA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mansour</t>
+        </is>
+      </c>
+      <c r="C29" s="32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="17">
+      <c r="C30" s="32" t="n"/>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="17">
+      <c r="C31" s="32" t="n"/>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="17">
+      <c r="C32" s="32" t="n"/>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="17">
+      <c r="C33" s="32" t="n"/>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="17">
+      <c r="C34" s="32" t="n"/>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="17">
+      <c r="C35" s="32" t="n"/>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="17">
+      <c r="C36" s="32" t="n"/>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="17">
+      <c r="C37" s="32" t="n"/>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="17">
+      <c r="C38" s="32" t="n"/>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="17">
+      <c r="C39" s="32" t="n"/>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="17">
+      <c r="C40" s="32" t="n"/>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="17">
+      <c r="C41" s="32" t="n"/>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="17">
+      <c r="C42" s="32" t="n"/>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="17">
+      <c r="C43" s="32" t="n"/>
+    </row>
+    <row r="44" ht="12.8" customHeight="1" s="17">
+      <c r="C44" s="32" t="n"/>
+    </row>
+    <row r="45" ht="12.8" customHeight="1" s="17">
+      <c r="C45" s="32" t="n"/>
+    </row>
+    <row r="46" ht="12.8" customHeight="1" s="17">
+      <c r="C46" s="32" t="n"/>
+    </row>
+    <row r="47" ht="12.8" customHeight="1" s="17">
+      <c r="C47" s="32" t="n"/>
+    </row>
+    <row r="48" ht="12.8" customHeight="1" s="17">
+      <c r="C48" s="32" t="n"/>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="17">
+      <c r="C49" s="32" t="n"/>
+    </row>
+    <row r="50" ht="12.8" customHeight="1" s="17">
+      <c r="C50" s="32" t="n"/>
+    </row>
+    <row r="51" ht="12.8" customHeight="1" s="17">
+      <c r="C51" s="32" t="n"/>
+    </row>
+    <row r="52" ht="12.8" customHeight="1" s="17">
+      <c r="C52" s="32" t="n"/>
+    </row>
+    <row r="53" ht="12.8" customHeight="1" s="17">
+      <c r="C53" s="32" t="n"/>
+    </row>
+    <row r="54" ht="12.8" customHeight="1" s="17">
+      <c r="C54" s="32" t="n"/>
+    </row>
+    <row r="55" ht="12.8" customHeight="1" s="17">
+      <c r="C55" s="32" t="n"/>
+    </row>
+    <row r="56" ht="12.8" customHeight="1" s="17">
+      <c r="C56" s="32" t="n"/>
+    </row>
+    <row r="57" ht="12.8" customHeight="1" s="17">
+      <c r="C57" s="32" t="n"/>
+    </row>
+    <row r="58" ht="12.8" customHeight="1" s="17">
+      <c r="C58" s="32" t="n"/>
+    </row>
+    <row r="59" ht="12.8" customHeight="1" s="17">
+      <c r="C59" s="32" t="n"/>
+    </row>
+    <row r="60" ht="12.8" customHeight="1" s="17">
+      <c r="C60" s="32" t="n"/>
+    </row>
+    <row r="61" ht="12.8" customHeight="1" s="17">
+      <c r="C61" s="32" t="n"/>
+    </row>
+    <row r="62" ht="12.8" customHeight="1" s="17">
+      <c r="C62" s="32" t="n"/>
+    </row>
+    <row r="63" ht="12.8" customHeight="1" s="17">
+      <c r="C63" s="32" t="n"/>
+    </row>
+    <row r="64" ht="12.8" customHeight="1" s="17">
+      <c r="C64" s="32" t="n"/>
+    </row>
+    <row r="65" ht="12.8" customHeight="1" s="17">
+      <c r="C65" s="32" t="n"/>
+    </row>
+    <row r="66" ht="12.8" customHeight="1" s="17">
+      <c r="C66" s="32" t="n"/>
+    </row>
+    <row r="67" ht="12.8" customHeight="1" s="17">
+      <c r="C67" s="32" t="n"/>
+    </row>
+    <row r="68" ht="12.8" customHeight="1" s="17">
+      <c r="C68" s="32" t="n"/>
+    </row>
+    <row r="69" ht="12.8" customHeight="1" s="17">
+      <c r="C69" s="32" t="n"/>
+    </row>
+    <row r="70" ht="12.8" customHeight="1" s="17">
+      <c r="C70" s="32" t="n"/>
+    </row>
+    <row r="71" ht="12.8" customHeight="1" s="17">
+      <c r="C71" s="32" t="n"/>
+    </row>
+    <row r="72" ht="12.8" customHeight="1" s="17">
+      <c r="C72" s="32" t="n"/>
+    </row>
+    <row r="73" ht="12.8" customHeight="1" s="17">
+      <c r="C73" s="32" t="n"/>
+    </row>
+    <row r="74" ht="12.8" customHeight="1" s="17">
+      <c r="C74" s="32" t="n"/>
+    </row>
+    <row r="75" ht="12.8" customHeight="1" s="17">
+      <c r="C75" s="32" t="n"/>
+    </row>
+    <row r="76" ht="12.8" customHeight="1" s="17">
+      <c r="C76" s="32" t="n"/>
+    </row>
+    <row r="77" ht="12.8" customHeight="1" s="17">
+      <c r="C77" s="32" t="n"/>
+    </row>
+    <row r="78" ht="12.8" customHeight="1" s="17">
+      <c r="C78" s="32" t="n"/>
+    </row>
+    <row r="79" ht="12.8" customHeight="1" s="17">
+      <c r="C79" s="32" t="n"/>
+    </row>
+    <row r="80" ht="12.8" customHeight="1" s="17">
+      <c r="C80" s="32" t="n"/>
+    </row>
+    <row r="81" ht="12.8" customHeight="1" s="17">
+      <c r="C81" s="32" t="n"/>
+    </row>
+    <row r="82" ht="12.8" customHeight="1" s="17">
+      <c r="C82" s="32" t="n"/>
+    </row>
+    <row r="83" ht="12.8" customHeight="1" s="17">
+      <c r="C83" s="32" t="n"/>
+    </row>
+    <row r="84" ht="12.8" customHeight="1" s="17">
+      <c r="C84" s="32" t="n"/>
+    </row>
+    <row r="85" ht="12.8" customHeight="1" s="17">
+      <c r="C85" s="32" t="n"/>
+    </row>
+    <row r="86" ht="12.8" customHeight="1" s="17">
+      <c r="C86" s="32" t="n"/>
+    </row>
+    <row r="87" ht="12.8" customHeight="1" s="17">
+      <c r="C87" s="32" t="n"/>
+    </row>
+    <row r="88" ht="12.8" customHeight="1" s="17">
+      <c r="C88" s="32" t="n"/>
+    </row>
+    <row r="89" ht="12.8" customHeight="1" s="17">
+      <c r="C89" s="32" t="n"/>
+    </row>
+    <row r="90" ht="12.8" customHeight="1" s="17">
+      <c r="C90" s="32" t="n"/>
+    </row>
+    <row r="91" ht="12.8" customHeight="1" s="17">
+      <c r="C91" s="32" t="n"/>
+    </row>
+    <row r="92" ht="12.8" customHeight="1" s="17">
+      <c r="C92" s="32" t="n"/>
+    </row>
+    <row r="93" ht="12.8" customHeight="1" s="17">
+      <c r="C93" s="32" t="n"/>
+    </row>
+    <row r="94" ht="12.8" customHeight="1" s="17">
+      <c r="C94" s="32" t="n"/>
+    </row>
+    <row r="95" ht="12.8" customHeight="1" s="17">
+      <c r="C95" s="32" t="n"/>
+    </row>
+    <row r="96" ht="12.8" customHeight="1" s="17">
+      <c r="C96" s="32" t="n"/>
+    </row>
+    <row r="97" ht="12.8" customHeight="1" s="17">
+      <c r="C97" s="32" t="n"/>
+    </row>
+    <row r="98" ht="12.8" customHeight="1" s="17">
+      <c r="C98" s="32" t="n"/>
+    </row>
+    <row r="99" ht="12.8" customHeight="1" s="17">
+      <c r="C99" s="32" t="n"/>
+    </row>
+    <row r="100" ht="12.8" customHeight="1" s="17">
+      <c r="C100" s="32" t="n"/>
+    </row>
+    <row r="101" ht="12.8" customHeight="1" s="17">
+      <c r="C101" s="32" t="n"/>
+    </row>
+    <row r="102" ht="12.8" customHeight="1" s="17">
+      <c r="C102" s="32" t="n"/>
+    </row>
+    <row r="103" ht="12.8" customHeight="1" s="17">
+      <c r="C103" s="32" t="n"/>
+    </row>
+    <row r="104" ht="12.8" customHeight="1" s="17">
+      <c r="C104" s="32" t="n"/>
+    </row>
+    <row r="105" ht="12.8" customHeight="1" s="17">
+      <c r="C105" s="32" t="n"/>
+    </row>
+    <row r="106" ht="12.8" customHeight="1" s="17">
+      <c r="C106" s="32" t="n"/>
+    </row>
+    <row r="107" ht="12.8" customHeight="1" s="17">
+      <c r="C107" s="32" t="n"/>
+    </row>
+    <row r="108" ht="12.8" customHeight="1" s="17">
+      <c r="C108" s="32" t="n"/>
+    </row>
+    <row r="109" ht="12.8" customHeight="1" s="17">
+      <c r="C109" s="32" t="n"/>
+    </row>
+    <row r="110" ht="12.8" customHeight="1" s="17">
+      <c r="C110" s="32" t="n"/>
+    </row>
+    <row r="111" ht="12.8" customHeight="1" s="17">
+      <c r="C111" s="32" t="n"/>
+    </row>
+    <row r="112" ht="12.8" customHeight="1" s="17">
+      <c r="C112" s="32" t="n"/>
+    </row>
+    <row r="113" ht="12.8" customHeight="1" s="17">
+      <c r="C113" s="32" t="n"/>
+    </row>
+    <row r="114" ht="12.8" customHeight="1" s="17">
+      <c r="C114" s="32" t="n"/>
+    </row>
+    <row r="115" ht="12.8" customHeight="1" s="17">
+      <c r="C115" s="32" t="n"/>
+    </row>
+    <row r="116" ht="12.8" customHeight="1" s="17">
+      <c r="C116" s="32" t="n"/>
+    </row>
+    <row r="117" ht="12.8" customHeight="1" s="17">
+      <c r="C117" s="32" t="n"/>
+    </row>
+    <row r="118" ht="12.8" customHeight="1" s="17">
+      <c r="C118" s="32" t="n"/>
+    </row>
+    <row r="119" ht="12.8" customHeight="1" s="17">
+      <c r="C119" s="32" t="n"/>
+    </row>
+    <row r="120" ht="12.8" customHeight="1" s="17">
+      <c r="C120" s="32" t="n"/>
+    </row>
+    <row r="121" ht="12.8" customHeight="1" s="17">
+      <c r="C121" s="32" t="n"/>
+    </row>
+    <row r="122" ht="12.8" customHeight="1" s="17">
+      <c r="C122" s="32" t="n"/>
+    </row>
+    <row r="123" ht="12.8" customHeight="1" s="17">
+      <c r="C123" s="32" t="n"/>
+    </row>
+    <row r="124" ht="12.8" customHeight="1" s="17">
+      <c r="C124" s="32" t="n"/>
+    </row>
+    <row r="125" ht="12.8" customHeight="1" s="17">
+      <c r="C125" s="32" t="n"/>
+    </row>
+    <row r="126" ht="12.8" customHeight="1" s="17">
+      <c r="C126" s="32" t="n"/>
+    </row>
+    <row r="127" ht="12.8" customHeight="1" s="17">
+      <c r="C127" s="32" t="n"/>
+    </row>
+    <row r="128" ht="12.8" customHeight="1" s="17">
+      <c r="C128" s="32" t="n"/>
+    </row>
+    <row r="129" ht="12.8" customHeight="1" s="17">
+      <c r="C129" s="32" t="n"/>
+    </row>
+    <row r="130" ht="12.8" customHeight="1" s="17">
+      <c r="C130" s="32" t="n"/>
+    </row>
+    <row r="131" ht="12.8" customHeight="1" s="17">
+      <c r="C131" s="32" t="n"/>
+    </row>
+    <row r="132" ht="12.8" customHeight="1" s="17">
+      <c r="C132" s="32" t="n"/>
+    </row>
+    <row r="133" ht="12.8" customHeight="1" s="17">
+      <c r="C133" s="32" t="n"/>
+    </row>
+    <row r="134" ht="12.8" customHeight="1" s="17">
+      <c r="C134" s="32" t="n"/>
+    </row>
+    <row r="135" ht="12.8" customHeight="1" s="17">
+      <c r="C135" s="32" t="n"/>
+    </row>
+    <row r="136" ht="12.8" customHeight="1" s="17">
+      <c r="C136" s="32" t="n"/>
+    </row>
+    <row r="137" ht="12.8" customHeight="1" s="17">
+      <c r="C137" s="32" t="n"/>
+    </row>
+    <row r="138" ht="12.8" customHeight="1" s="17">
+      <c r="C138" s="32" t="n"/>
+    </row>
+    <row r="139" ht="12.8" customHeight="1" s="17">
+      <c r="C139" s="32" t="n"/>
+    </row>
+    <row r="140" ht="12.8" customHeight="1" s="17">
+      <c r="C140" s="32" t="n"/>
+    </row>
+    <row r="141" ht="12.8" customHeight="1" s="17">
+      <c r="C141" s="32" t="n"/>
+    </row>
+    <row r="142" ht="12.8" customHeight="1" s="17">
+      <c r="C142" s="32" t="n"/>
+    </row>
+    <row r="143" ht="12.8" customHeight="1" s="17">
+      <c r="C143" s="32" t="n"/>
+    </row>
+    <row r="144" ht="12.8" customHeight="1" s="17">
+      <c r="C144" s="32" t="n"/>
+    </row>
+    <row r="145" ht="12.8" customHeight="1" s="17">
+      <c r="C145" s="32" t="n"/>
+    </row>
+    <row r="146" ht="12.8" customHeight="1" s="17">
+      <c r="C146" s="32" t="n"/>
+    </row>
+    <row r="147" ht="12.8" customHeight="1" s="17">
+      <c r="C147" s="32" t="n"/>
+    </row>
+    <row r="148" ht="12.8" customHeight="1" s="17">
+      <c r="C148" s="32" t="n"/>
+    </row>
+    <row r="149" ht="12.8" customHeight="1" s="17">
+      <c r="C149" s="32" t="n"/>
+    </row>
+    <row r="150" ht="12.8" customHeight="1" s="17">
+      <c r="C150" s="32" t="n"/>
+    </row>
+    <row r="151" ht="12.8" customHeight="1" s="17">
+      <c r="C151" s="32" t="n"/>
+    </row>
+    <row r="152" ht="12.8" customHeight="1" s="17">
+      <c r="C152" s="32" t="n"/>
+    </row>
+    <row r="153" ht="12.8" customHeight="1" s="17">
+      <c r="C153" s="32" t="n"/>
+    </row>
+    <row r="154" ht="12.8" customHeight="1" s="17">
+      <c r="C154" s="32" t="n"/>
+    </row>
+    <row r="155" ht="12.8" customHeight="1" s="17">
+      <c r="C155" s="32" t="n"/>
+    </row>
+    <row r="156" ht="12.8" customHeight="1" s="17">
+      <c r="C156" s="32" t="n"/>
+    </row>
+    <row r="157" ht="12.8" customHeight="1" s="17">
+      <c r="C157" s="32" t="n"/>
+    </row>
+    <row r="158" ht="12.8" customHeight="1" s="17">
+      <c r="C158" s="32" t="n"/>
+    </row>
+    <row r="159" ht="12.8" customHeight="1" s="17">
+      <c r="C159" s="32" t="n"/>
+    </row>
+    <row r="160" ht="12.8" customHeight="1" s="17">
+      <c r="C160" s="32" t="n"/>
+    </row>
+    <row r="161" ht="12.8" customHeight="1" s="17">
+      <c r="C161" s="32" t="n"/>
+    </row>
+    <row r="162" ht="12.8" customHeight="1" s="17">
+      <c r="C162" s="32" t="n"/>
+    </row>
+    <row r="163" ht="12.8" customHeight="1" s="17">
+      <c r="C163" s="32" t="n"/>
+    </row>
+    <row r="164" ht="12.8" customHeight="1" s="17">
+      <c r="C164" s="32" t="n"/>
+    </row>
+    <row r="165" ht="12.8" customHeight="1" s="17">
+      <c r="C165" s="32" t="n"/>
+    </row>
+    <row r="166" ht="12.8" customHeight="1" s="17">
+      <c r="C166" s="32" t="n"/>
+    </row>
+    <row r="167" ht="12.8" customHeight="1" s="17">
+      <c r="C167" s="32" t="n"/>
+    </row>
+    <row r="168" ht="12.8" customHeight="1" s="17">
+      <c r="C168" s="32" t="n"/>
+    </row>
+    <row r="169" ht="12.8" customHeight="1" s="17">
+      <c r="C169" s="32" t="n"/>
+    </row>
+    <row r="170" ht="12.8" customHeight="1" s="17">
+      <c r="C170" s="32" t="n"/>
+    </row>
+    <row r="171" ht="12.8" customHeight="1" s="17">
+      <c r="C171" s="32" t="n"/>
+    </row>
+    <row r="172" ht="12.8" customHeight="1" s="17">
+      <c r="C172" s="32" t="n"/>
+    </row>
+    <row r="173" ht="12.8" customHeight="1" s="17">
+      <c r="C173" s="32" t="n"/>
+    </row>
+    <row r="174" ht="12.8" customHeight="1" s="17">
+      <c r="C174" s="32" t="n"/>
+    </row>
+    <row r="175" ht="12.8" customHeight="1" s="17">
+      <c r="C175" s="32" t="n"/>
+    </row>
+    <row r="176" ht="12.8" customHeight="1" s="17">
+      <c r="C176" s="32" t="n"/>
+    </row>
+    <row r="177" ht="12.8" customHeight="1" s="17">
+      <c r="C177" s="32" t="n"/>
+    </row>
+    <row r="178" ht="12.8" customHeight="1" s="17">
+      <c r="C178" s="32" t="n"/>
+    </row>
+    <row r="179" ht="12.8" customHeight="1" s="17">
+      <c r="C179" s="32" t="n"/>
+    </row>
+    <row r="180" ht="12.8" customHeight="1" s="17">
+      <c r="C180" s="32" t="n"/>
+    </row>
+    <row r="181" ht="12.8" customHeight="1" s="17">
+      <c r="C181" s="32" t="n"/>
+    </row>
+    <row r="182" ht="12.8" customHeight="1" s="17">
+      <c r="C182" s="32" t="n"/>
+    </row>
+    <row r="183" ht="12.8" customHeight="1" s="17">
+      <c r="C183" s="32" t="n"/>
+    </row>
+    <row r="184" ht="12.8" customHeight="1" s="17">
+      <c r="C184" s="32" t="n"/>
+    </row>
+    <row r="185" ht="12.8" customHeight="1" s="17">
+      <c r="C185" s="32" t="n"/>
+    </row>
+    <row r="186" ht="12.8" customHeight="1" s="17">
+      <c r="C186" s="32" t="n"/>
+    </row>
+    <row r="187" ht="12.8" customHeight="1" s="17">
+      <c r="C187" s="32" t="n"/>
+    </row>
+    <row r="188" ht="12.8" customHeight="1" s="17">
+      <c r="C188" s="32" t="n"/>
+    </row>
+    <row r="189" ht="12.8" customHeight="1" s="17">
+      <c r="C189" s="32" t="n"/>
+    </row>
+    <row r="190" ht="12.8" customHeight="1" s="17">
+      <c r="C190" s="32" t="n"/>
+    </row>
+    <row r="191" ht="12.8" customHeight="1" s="17">
+      <c r="C191" s="32" t="n"/>
+    </row>
+    <row r="192" ht="12.8" customHeight="1" s="17">
+      <c r="C192" s="32" t="n"/>
+    </row>
+    <row r="193" ht="12.8" customHeight="1" s="17">
+      <c r="C193" s="32" t="n"/>
+    </row>
+    <row r="194" ht="12.8" customHeight="1" s="17">
+      <c r="C194" s="32" t="n"/>
+    </row>
+    <row r="195" ht="12.8" customHeight="1" s="17">
+      <c r="C195" s="32" t="n"/>
+    </row>
+    <row r="196" ht="12.8" customHeight="1" s="17">
+      <c r="C196" s="32" t="n"/>
+    </row>
+    <row r="197" ht="12.8" customHeight="1" s="17">
+      <c r="C197" s="32" t="n"/>
+    </row>
+    <row r="198" ht="12.8" customHeight="1" s="17">
+      <c r="C198" s="32" t="n"/>
+    </row>
+    <row r="199" ht="12.8" customHeight="1" s="17">
+      <c r="C199" s="32" t="n"/>
+    </row>
+    <row r="200" ht="12.8" customHeight="1" s="17">
+      <c r="C200" s="32" t="n"/>
+    </row>
+    <row r="201" ht="12.8" customHeight="1" s="17">
+      <c r="C201" s="32" t="n"/>
+    </row>
+    <row r="202" ht="12.8" customHeight="1" s="17">
+      <c r="C202" s="32" t="n"/>
+    </row>
+    <row r="203" ht="12.8" customHeight="1" s="17">
+      <c r="C203" s="32" t="n"/>
+    </row>
+    <row r="204" ht="12.8" customHeight="1" s="17">
+      <c r="C204" s="32" t="n"/>
+    </row>
+    <row r="205" ht="12.8" customHeight="1" s="17">
+      <c r="C205" s="32" t="n"/>
+    </row>
+    <row r="206" ht="12.8" customHeight="1" s="17">
+      <c r="C206" s="32" t="n"/>
+    </row>
+    <row r="207" ht="12.8" customHeight="1" s="17">
+      <c r="C207" s="32" t="n"/>
+    </row>
+    <row r="208" ht="12.8" customHeight="1" s="17">
+      <c r="C208" s="32" t="n"/>
+    </row>
+    <row r="209" ht="12.8" customHeight="1" s="17">
+      <c r="C209" s="32" t="n"/>
+    </row>
+    <row r="210" ht="12.8" customHeight="1" s="17">
+      <c r="C210" s="32" t="n"/>
+    </row>
+    <row r="211" ht="12.8" customHeight="1" s="17">
+      <c r="C211" s="32" t="n"/>
+    </row>
+    <row r="212" ht="12.8" customHeight="1" s="17">
+      <c r="C212" s="32" t="n"/>
+    </row>
+    <row r="213" ht="12.8" customHeight="1" s="17">
+      <c r="C213" s="32" t="n"/>
+    </row>
+    <row r="214" ht="12.8" customHeight="1" s="17">
+      <c r="C214" s="32" t="n"/>
+    </row>
+    <row r="215" ht="12.8" customHeight="1" s="17">
+      <c r="C215" s="32" t="n"/>
+    </row>
+    <row r="216" ht="12.8" customHeight="1" s="17">
+      <c r="C216" s="32" t="n"/>
+    </row>
+    <row r="217" ht="12.8" customHeight="1" s="17">
+      <c r="C217" s="32" t="n"/>
+    </row>
+    <row r="218" ht="12.8" customHeight="1" s="17">
+      <c r="C218" s="32" t="n"/>
+    </row>
+    <row r="219" ht="12.8" customHeight="1" s="17">
+      <c r="C219" s="32" t="n"/>
+    </row>
+    <row r="220" ht="12.8" customHeight="1" s="17">
+      <c r="C220" s="32" t="n"/>
+    </row>
+    <row r="221" ht="12.8" customHeight="1" s="17">
+      <c r="C221" s="32" t="n"/>
+    </row>
+    <row r="222" ht="12.8" customHeight="1" s="17">
+      <c r="C222" s="32" t="n"/>
+    </row>
+    <row r="223" ht="12.8" customHeight="1" s="17">
+      <c r="C223" s="32" t="n"/>
+    </row>
+    <row r="224" ht="12.8" customHeight="1" s="17">
+      <c r="C224" s="32" t="n"/>
+    </row>
+    <row r="225" ht="12.8" customHeight="1" s="17">
+      <c r="C225" s="32" t="n"/>
+    </row>
+    <row r="226" ht="12.8" customHeight="1" s="17">
+      <c r="C226" s="32" t="n"/>
+    </row>
+    <row r="227" ht="12.8" customHeight="1" s="17">
+      <c r="C227" s="32" t="n"/>
+    </row>
+    <row r="228" ht="12.8" customHeight="1" s="17">
+      <c r="C228" s="32" t="n"/>
+    </row>
+    <row r="229" ht="12.8" customHeight="1" s="17">
+      <c r="C229" s="32" t="n"/>
+    </row>
+    <row r="230" ht="12.8" customHeight="1" s="17">
+      <c r="C230" s="32" t="n"/>
+    </row>
+    <row r="231" ht="12.8" customHeight="1" s="17">
+      <c r="C231" s="32" t="n"/>
+    </row>
+    <row r="232" ht="12.8" customHeight="1" s="17">
+      <c r="C232" s="32" t="n"/>
+    </row>
+    <row r="233" ht="12.8" customHeight="1" s="17">
+      <c r="C233" s="32" t="n"/>
+    </row>
+    <row r="234" ht="12.8" customHeight="1" s="17">
+      <c r="C234" s="32" t="n"/>
+    </row>
+    <row r="235" ht="12.8" customHeight="1" s="17">
+      <c r="C235" s="32" t="n"/>
+    </row>
+    <row r="236" ht="12.8" customHeight="1" s="17">
+      <c r="C236" s="32" t="n"/>
+    </row>
+    <row r="237" ht="12.8" customHeight="1" s="17">
+      <c r="C237" s="32" t="n"/>
+    </row>
+    <row r="238" ht="12.8" customHeight="1" s="17">
+      <c r="C238" s="32" t="n"/>
+    </row>
+    <row r="239" ht="12.8" customHeight="1" s="17">
+      <c r="C239" s="32" t="n"/>
+    </row>
+    <row r="240" ht="12.8" customHeight="1" s="17">
+      <c r="C240" s="32" t="n"/>
+    </row>
+    <row r="241" ht="12.8" customHeight="1" s="17">
+      <c r="C241" s="32" t="n"/>
+    </row>
+    <row r="242" ht="12.8" customHeight="1" s="17">
+      <c r="C242" s="32" t="n"/>
+    </row>
+    <row r="243" ht="12.8" customHeight="1" s="17">
+      <c r="C243" s="32" t="n"/>
+    </row>
+    <row r="244" ht="12.8" customHeight="1" s="17">
+      <c r="C244" s="32" t="n"/>
+    </row>
+    <row r="245" ht="12.8" customHeight="1" s="17">
+      <c r="C245" s="32" t="n"/>
+    </row>
+    <row r="246" ht="12.8" customHeight="1" s="17">
+      <c r="C246" s="32" t="n"/>
+    </row>
+    <row r="247" ht="12.8" customHeight="1" s="17">
+      <c r="C247" s="32" t="n"/>
+    </row>
+    <row r="248" ht="12.8" customHeight="1" s="17">
+      <c r="C248" s="32" t="n"/>
+    </row>
+    <row r="249" ht="12.8" customHeight="1" s="17">
+      <c r="C249" s="32" t="n"/>
+    </row>
+    <row r="250" ht="12.8" customHeight="1" s="17">
+      <c r="C250" s="32" t="n"/>
+    </row>
+    <row r="251" ht="12.8" customHeight="1" s="17">
+      <c r="C251" s="32" t="n"/>
+    </row>
+    <row r="252" ht="12.8" customHeight="1" s="17">
+      <c r="C252" s="32" t="n"/>
+    </row>
+    <row r="253" ht="12.8" customHeight="1" s="17">
+      <c r="C253" s="32" t="n"/>
+    </row>
+    <row r="254" ht="12.8" customHeight="1" s="17">
+      <c r="C254" s="32" t="n"/>
+    </row>
+    <row r="255" ht="12.8" customHeight="1" s="17">
+      <c r="C255" s="32" t="n"/>
+    </row>
+    <row r="256" ht="12.8" customHeight="1" s="17">
+      <c r="C256" s="32" t="n"/>
+    </row>
+    <row r="257" ht="12.8" customHeight="1" s="17">
+      <c r="C257" s="32" t="n"/>
+    </row>
+    <row r="258" ht="12.8" customHeight="1" s="17">
+      <c r="C258" s="32" t="n"/>
+    </row>
+    <row r="259" ht="12.8" customHeight="1" s="17">
+      <c r="C259" s="32" t="n"/>
+    </row>
+    <row r="260" ht="12.8" customHeight="1" s="17">
+      <c r="C260" s="32" t="n"/>
+    </row>
+    <row r="261" ht="12.8" customHeight="1" s="17">
+      <c r="C261" s="32" t="n"/>
+    </row>
+    <row r="262" ht="12.8" customHeight="1" s="17">
+      <c r="C262" s="32" t="n"/>
+    </row>
+    <row r="263" ht="12.8" customHeight="1" s="17">
+      <c r="C263" s="32" t="n"/>
+    </row>
+    <row r="264" ht="12.8" customHeight="1" s="17">
+      <c r="C264" s="32" t="n"/>
+    </row>
+    <row r="265" ht="12.8" customHeight="1" s="17">
+      <c r="C265" s="32" t="n"/>
+    </row>
+    <row r="266" ht="12.8" customHeight="1" s="17">
+      <c r="C266" s="32" t="n"/>
+    </row>
+    <row r="267" ht="12.8" customHeight="1" s="17">
+      <c r="C267" s="32" t="n"/>
+    </row>
+    <row r="268" ht="12.8" customHeight="1" s="17">
+      <c r="C268" s="32" t="n"/>
+    </row>
+    <row r="269" ht="12.8" customHeight="1" s="17">
+      <c r="C269" s="32" t="n"/>
+    </row>
+    <row r="270" ht="12.8" customHeight="1" s="17">
+      <c r="C270" s="32" t="n"/>
+    </row>
+    <row r="271" ht="12.8" customHeight="1" s="17">
+      <c r="C271" s="32" t="n"/>
+    </row>
+    <row r="272" ht="12.8" customHeight="1" s="17">
+      <c r="C272" s="32" t="n"/>
+    </row>
+    <row r="273" ht="12.8" customHeight="1" s="17">
+      <c r="C273" s="32" t="n"/>
+    </row>
+    <row r="274" ht="12.8" customHeight="1" s="17">
+      <c r="C274" s="32" t="n"/>
+    </row>
+    <row r="275" ht="12.8" customHeight="1" s="17">
+      <c r="C275" s="32" t="n"/>
+    </row>
+    <row r="276" ht="12.8" customHeight="1" s="17">
+      <c r="C276" s="32" t="n"/>
+    </row>
+    <row r="277" ht="12.8" customHeight="1" s="17">
+      <c r="C277" s="32" t="n"/>
+    </row>
+    <row r="278" ht="12.8" customHeight="1" s="17">
+      <c r="C278" s="32" t="n"/>
+    </row>
+    <row r="279" ht="12.8" customHeight="1" s="17">
+      <c r="C279" s="32" t="n"/>
+    </row>
+    <row r="280" ht="12.8" customHeight="1" s="17">
+      <c r="C280" s="32" t="n"/>
+    </row>
+    <row r="281" ht="12.8" customHeight="1" s="17">
+      <c r="C281" s="32" t="n"/>
+    </row>
+    <row r="282" ht="12.8" customHeight="1" s="17">
+      <c r="C282" s="32" t="n"/>
+    </row>
+    <row r="283" ht="12.8" customHeight="1" s="17">
+      <c r="C283" s="32" t="n"/>
+    </row>
+    <row r="284" ht="12.8" customHeight="1" s="17">
+      <c r="C284" s="32" t="n"/>
+    </row>
+    <row r="285" ht="12.8" customHeight="1" s="17">
+      <c r="C285" s="32" t="n"/>
+    </row>
+    <row r="286" ht="12.8" customHeight="1" s="17">
+      <c r="C286" s="32" t="n"/>
+    </row>
+    <row r="287" ht="12.8" customHeight="1" s="17">
+      <c r="C287" s="32" t="n"/>
+    </row>
+    <row r="288" ht="12.8" customHeight="1" s="17">
+      <c r="C288" s="32" t="n"/>
+    </row>
+    <row r="289" ht="12.8" customHeight="1" s="17">
+      <c r="C289" s="32" t="n"/>
+    </row>
+    <row r="290" ht="12.8" customHeight="1" s="17">
+      <c r="C290" s="32" t="n"/>
+    </row>
+    <row r="291" ht="12.8" customHeight="1" s="17">
+      <c r="C291" s="32" t="n"/>
+    </row>
+    <row r="292" ht="12.8" customHeight="1" s="17">
+      <c r="C292" s="32" t="n"/>
+    </row>
+    <row r="293" ht="12.8" customHeight="1" s="17">
+      <c r="C293" s="32" t="n"/>
+    </row>
+    <row r="294" ht="12.8" customHeight="1" s="17">
+      <c r="C294" s="32" t="n"/>
+    </row>
+    <row r="295" ht="12.8" customHeight="1" s="17">
+      <c r="C295" s="32" t="n"/>
+    </row>
+    <row r="296" ht="12.8" customHeight="1" s="17">
+      <c r="C296" s="32" t="n"/>
+    </row>
+    <row r="297" ht="12.8" customHeight="1" s="17">
+      <c r="C297" s="32" t="n"/>
+    </row>
+    <row r="298" ht="12.8" customHeight="1" s="17">
+      <c r="C298" s="32" t="n"/>
+    </row>
+    <row r="299" ht="12.8" customHeight="1" s="17">
+      <c r="C299" s="32" t="n"/>
+    </row>
+    <row r="300" ht="12.8" customHeight="1" s="17">
+      <c r="C300" s="32" t="n"/>
+    </row>
+    <row r="301" ht="12.8" customHeight="1" s="17">
+      <c r="C301" s="32" t="n"/>
+    </row>
+    <row r="302" ht="12.8" customHeight="1" s="17">
+      <c r="C302" s="32" t="n"/>
+    </row>
+    <row r="303" ht="12.8" customHeight="1" s="17">
+      <c r="C303" s="32" t="n"/>
+    </row>
+    <row r="304" ht="12.8" customHeight="1" s="17">
+      <c r="C304" s="32" t="n"/>
+    </row>
+    <row r="305" ht="12.8" customHeight="1" s="17">
+      <c r="C305" s="32" t="n"/>
+    </row>
+    <row r="306" ht="12.8" customHeight="1" s="17">
+      <c r="C306" s="32" t="n"/>
+    </row>
+    <row r="307" ht="12.8" customHeight="1" s="17">
+      <c r="C307" s="32" t="n"/>
+    </row>
+    <row r="308" ht="12.8" customHeight="1" s="17">
+      <c r="C308" s="32" t="n"/>
+    </row>
+    <row r="309" ht="12.8" customHeight="1" s="17">
+      <c r="C309" s="32" t="n"/>
+    </row>
+    <row r="310" ht="12.8" customHeight="1" s="17">
+      <c r="C310" s="32" t="n"/>
+    </row>
+    <row r="311" ht="12.8" customHeight="1" s="17">
+      <c r="C311" s="32" t="n"/>
+    </row>
+    <row r="312" ht="12.8" customHeight="1" s="17">
+      <c r="C312" s="32" t="n"/>
+    </row>
+    <row r="313" ht="12.8" customHeight="1" s="17">
+      <c r="C313" s="32" t="n"/>
+    </row>
+    <row r="314" ht="12.8" customHeight="1" s="17">
+      <c r="C314" s="32" t="n"/>
+    </row>
+    <row r="315" ht="12.8" customHeight="1" s="17">
+      <c r="C315" s="32" t="n"/>
+    </row>
+    <row r="316" ht="12.8" customHeight="1" s="17">
+      <c r="C316" s="32" t="n"/>
+    </row>
+    <row r="317" ht="12.8" customHeight="1" s="17">
+      <c r="C317" s="32" t="n"/>
+    </row>
+    <row r="318" ht="12.8" customHeight="1" s="17">
+      <c r="C318" s="32" t="n"/>
+    </row>
+    <row r="319" ht="12.8" customHeight="1" s="17">
+      <c r="C319" s="32" t="n"/>
+    </row>
+    <row r="1048572" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="17"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="35" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:P319"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="37.57" customWidth="1" style="16" min="1" max="1"/>
+    <col width="34.43" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.43" customWidth="1" style="16" min="3" max="3"/>
+    <col width="17.59" customWidth="1" style="16" min="4" max="4"/>
+    <col width="15.42" customWidth="1" style="16" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.75" customHeight="1" s="17">
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>annee :</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="21" t="n"/>
+      <c r="E1" s="21" t="n"/>
+      <c r="F1" s="21" t="n"/>
+      <c r="G1" s="21" t="n"/>
+      <c r="H1" s="21" t="n"/>
+      <c r="I1" s="21" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="21" t="n"/>
+      <c r="L1" s="21" t="n"/>
+      <c r="M1" s="21" t="n"/>
+      <c r="N1" s="21" t="n"/>
+      <c r="O1" s="21" t="n"/>
+      <c r="P1" s="21" t="n"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" s="17">
+      <c r="A2" s="18" t="inlineStr">
+        <is>
+          <t>semestre :</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="21" t="n"/>
+      <c r="F2" s="21" t="n"/>
+      <c r="G2" s="21" t="n"/>
+      <c r="H2" s="21" t="n"/>
+      <c r="I2" s="21" t="n"/>
+      <c r="J2" s="21" t="n"/>
+      <c r="K2" s="21" t="n"/>
+      <c r="L2" s="21" t="n"/>
+      <c r="M2" s="21" t="n"/>
+      <c r="N2" s="21" t="n"/>
+      <c r="O2" s="21" t="n"/>
+      <c r="P2" s="21" t="n"/>
+    </row>
+    <row r="3" ht="21.75" customHeight="1" s="17">
+      <c r="A3" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">matière : </t>
+        </is>
+      </c>
+      <c r="B3" s="23" t="inlineStr">
+        <is>
+          <t>Base de données 1</t>
+        </is>
+      </c>
+      <c r="C3" s="24" t="n"/>
+    </row>
+    <row r="4" ht="21.75" customHeight="1" s="17">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est une evaluation : </t>
+        </is>
+      </c>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="inlineStr">
+        <is>
+          <t>Oui ou Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date : </t>
+        </is>
+      </c>
+      <c r="B5" s="33" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C5" s="26" t="n"/>
+    </row>
+    <row r="6" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libelle : </t>
+        </is>
+      </c>
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>Evaluation N°1</t>
+        </is>
+      </c>
+      <c r="C6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pondération : </t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="26" t="n"/>
+    </row>
+    <row r="8" ht="21" customFormat="1" customHeight="1" s="27">
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="26" t="n"/>
+    </row>
+    <row r="9" ht="21" customFormat="1" customHeight="1" s="27">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C9" s="30" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="17">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ABDOULAYE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aliya</t>
+        </is>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="17">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADJEBADJA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abdoul-chakour</t>
+        </is>
+      </c>
+      <c r="C11" s="32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="17">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AGAO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Akila Rois</t>
+        </is>
+      </c>
+      <c r="C12" s="32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="17">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AKPARO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Olivier</t>
+        </is>
+      </c>
+      <c r="C13" s="32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="17">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMONA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Birewa Audrey</t>
+        </is>
+      </c>
+      <c r="C14" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="17">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AROUNA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ramdane</t>
+        </is>
+      </c>
+      <c r="C15" s="32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="17">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Traore Hannatou</t>
+        </is>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BAH-TOURE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fatiha</t>
+        </is>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="17">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BOKOPOLO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yahliou Phinéas</t>
+        </is>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="17">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DADO </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Koffi Jean Socrate</t>
+        </is>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="17">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KOUTEMA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ditoma</t>
+        </is>
+      </c>
+      <c r="C20" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="17">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NAZEGA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Youssif</t>
+        </is>
+      </c>
+      <c r="C21" s="32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="17">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NONDOOU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Essoronda</t>
+        </is>
+      </c>
+      <c r="C22" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="17">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>OULA BARNA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Moubarak</t>
+        </is>
+      </c>
+      <c r="C23" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="17">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PAKONDE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mazalou Célia</t>
+        </is>
+      </c>
+      <c r="C24" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="17">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TCHALA TALAKI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kibandou Stéphanie</t>
+        </is>
+      </c>
+      <c r="C25" s="32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="17">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TCHATCHAW </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gnénam Silas</t>
+        </is>
+      </c>
+      <c r="C26" s="32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="17">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TEOURI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fridaouss</t>
+        </is>
+      </c>
+      <c r="C27" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="17">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TRAORE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>El-imrane Adjibola</t>
+        </is>
+      </c>
+      <c r="C28" s="32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="17">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>YERIMA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mansour</t>
+        </is>
+      </c>
+      <c r="C29" s="32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="17">
+      <c r="C30" s="32" t="n"/>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="17">
+      <c r="C31" s="32" t="n"/>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="17">
+      <c r="C32" s="32" t="n"/>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="17">
+      <c r="C33" s="32" t="n"/>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="17">
+      <c r="C34" s="32" t="n"/>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="17">
+      <c r="C35" s="32" t="n"/>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="17">
+      <c r="C36" s="32" t="n"/>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="17">
+      <c r="C37" s="32" t="n"/>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="17">
+      <c r="C38" s="32" t="n"/>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="17">
+      <c r="C39" s="32" t="n"/>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="17">
+      <c r="C40" s="32" t="n"/>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="17">
+      <c r="C41" s="32" t="n"/>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="17">
+      <c r="C42" s="32" t="n"/>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="17">
+      <c r="C43" s="32" t="n"/>
+    </row>
+    <row r="44" ht="12.8" customHeight="1" s="17">
+      <c r="C44" s="32" t="n"/>
+    </row>
+    <row r="45" ht="12.8" customHeight="1" s="17">
+      <c r="C45" s="32" t="n"/>
+    </row>
+    <row r="46" ht="12.8" customHeight="1" s="17">
+      <c r="C46" s="32" t="n"/>
+    </row>
+    <row r="47" ht="12.8" customHeight="1" s="17">
+      <c r="C47" s="32" t="n"/>
+    </row>
+    <row r="48" ht="12.8" customHeight="1" s="17">
+      <c r="C48" s="32" t="n"/>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="17">
+      <c r="C49" s="32" t="n"/>
+    </row>
+    <row r="50" ht="12.8" customHeight="1" s="17">
+      <c r="C50" s="32" t="n"/>
+    </row>
+    <row r="51" ht="12.8" customHeight="1" s="17">
+      <c r="C51" s="32" t="n"/>
+    </row>
+    <row r="52" ht="12.8" customHeight="1" s="17">
+      <c r="C52" s="32" t="n"/>
+    </row>
+    <row r="53" ht="12.8" customHeight="1" s="17">
+      <c r="C53" s="32" t="n"/>
+    </row>
+    <row r="54" ht="12.8" customHeight="1" s="17">
+      <c r="C54" s="32" t="n"/>
+    </row>
+    <row r="55" ht="12.8" customHeight="1" s="17">
+      <c r="C55" s="32" t="n"/>
+    </row>
+    <row r="56" ht="12.8" customHeight="1" s="17">
+      <c r="C56" s="32" t="n"/>
+    </row>
+    <row r="57" ht="12.8" customHeight="1" s="17">
+      <c r="C57" s="32" t="n"/>
+    </row>
+    <row r="58" ht="12.8" customHeight="1" s="17">
+      <c r="C58" s="32" t="n"/>
+    </row>
+    <row r="59" ht="12.8" customHeight="1" s="17">
+      <c r="C59" s="32" t="n"/>
+    </row>
+    <row r="60" ht="12.8" customHeight="1" s="17">
+      <c r="C60" s="32" t="n"/>
+    </row>
+    <row r="61" ht="12.8" customHeight="1" s="17">
+      <c r="C61" s="32" t="n"/>
+    </row>
+    <row r="62" ht="12.8" customHeight="1" s="17">
+      <c r="C62" s="32" t="n"/>
+    </row>
+    <row r="63" ht="12.8" customHeight="1" s="17">
+      <c r="C63" s="32" t="n"/>
+    </row>
+    <row r="64" ht="12.8" customHeight="1" s="17">
+      <c r="C64" s="32" t="n"/>
+    </row>
+    <row r="65" ht="12.8" customHeight="1" s="17">
+      <c r="C65" s="32" t="n"/>
+    </row>
+    <row r="66" ht="12.8" customHeight="1" s="17">
+      <c r="C66" s="32" t="n"/>
+    </row>
+    <row r="67" ht="12.8" customHeight="1" s="17">
+      <c r="C67" s="32" t="n"/>
+    </row>
+    <row r="68" ht="12.8" customHeight="1" s="17">
+      <c r="C68" s="32" t="n"/>
+    </row>
+    <row r="69" ht="12.8" customHeight="1" s="17">
+      <c r="C69" s="32" t="n"/>
+    </row>
+    <row r="70" ht="12.8" customHeight="1" s="17">
+      <c r="C70" s="32" t="n"/>
+    </row>
+    <row r="71" ht="12.8" customHeight="1" s="17">
+      <c r="C71" s="32" t="n"/>
+    </row>
+    <row r="72" ht="12.8" customHeight="1" s="17">
+      <c r="C72" s="32" t="n"/>
+    </row>
+    <row r="73" ht="12.8" customHeight="1" s="17">
+      <c r="C73" s="32" t="n"/>
+    </row>
+    <row r="74" ht="12.8" customHeight="1" s="17">
+      <c r="C74" s="32" t="n"/>
+    </row>
+    <row r="75" ht="12.8" customHeight="1" s="17">
+      <c r="C75" s="32" t="n"/>
+    </row>
+    <row r="76" ht="12.8" customHeight="1" s="17">
+      <c r="C76" s="32" t="n"/>
+    </row>
+    <row r="77" ht="12.8" customHeight="1" s="17">
+      <c r="C77" s="32" t="n"/>
+    </row>
+    <row r="78" ht="12.8" customHeight="1" s="17">
+      <c r="C78" s="32" t="n"/>
+    </row>
+    <row r="79" ht="12.8" customHeight="1" s="17">
+      <c r="C79" s="32" t="n"/>
+    </row>
+    <row r="80" ht="12.8" customHeight="1" s="17">
+      <c r="C80" s="32" t="n"/>
+    </row>
+    <row r="81" ht="12.8" customHeight="1" s="17">
+      <c r="C81" s="32" t="n"/>
+    </row>
+    <row r="82" ht="12.8" customHeight="1" s="17">
+      <c r="C82" s="32" t="n"/>
+    </row>
+    <row r="83" ht="12.8" customHeight="1" s="17">
+      <c r="C83" s="32" t="n"/>
+    </row>
+    <row r="84" ht="12.8" customHeight="1" s="17">
+      <c r="C84" s="32" t="n"/>
+    </row>
+    <row r="85" ht="12.8" customHeight="1" s="17">
+      <c r="C85" s="32" t="n"/>
+    </row>
+    <row r="86" ht="12.8" customHeight="1" s="17">
+      <c r="C86" s="32" t="n"/>
+    </row>
+    <row r="87" ht="12.8" customHeight="1" s="17">
+      <c r="C87" s="32" t="n"/>
+    </row>
+    <row r="88" ht="12.8" customHeight="1" s="17">
+      <c r="C88" s="32" t="n"/>
+    </row>
+    <row r="89" ht="12.8" customHeight="1" s="17">
+      <c r="C89" s="32" t="n"/>
+    </row>
+    <row r="90" ht="12.8" customHeight="1" s="17">
+      <c r="C90" s="32" t="n"/>
+    </row>
+    <row r="91" ht="12.8" customHeight="1" s="17">
+      <c r="C91" s="32" t="n"/>
+    </row>
+    <row r="92" ht="12.8" customHeight="1" s="17">
+      <c r="C92" s="32" t="n"/>
+    </row>
+    <row r="93" ht="12.8" customHeight="1" s="17">
+      <c r="C93" s="32" t="n"/>
+    </row>
+    <row r="94" ht="12.8" customHeight="1" s="17">
+      <c r="C94" s="32" t="n"/>
+    </row>
+    <row r="95" ht="12.8" customHeight="1" s="17">
+      <c r="C95" s="32" t="n"/>
+    </row>
+    <row r="96" ht="12.8" customHeight="1" s="17">
+      <c r="C96" s="32" t="n"/>
+    </row>
+    <row r="97" ht="12.8" customHeight="1" s="17">
+      <c r="C97" s="32" t="n"/>
+    </row>
+    <row r="98" ht="12.8" customHeight="1" s="17">
+      <c r="C98" s="32" t="n"/>
+    </row>
+    <row r="99" ht="12.8" customHeight="1" s="17">
+      <c r="C99" s="32" t="n"/>
+    </row>
+    <row r="100" ht="12.8" customHeight="1" s="17">
+      <c r="C100" s="32" t="n"/>
+    </row>
+    <row r="101" ht="12.8" customHeight="1" s="17">
+      <c r="C101" s="32" t="n"/>
+    </row>
+    <row r="102" ht="12.8" customHeight="1" s="17">
+      <c r="C102" s="32" t="n"/>
+    </row>
+    <row r="103" ht="12.8" customHeight="1" s="17">
+      <c r="C103" s="32" t="n"/>
+    </row>
+    <row r="104" ht="12.8" customHeight="1" s="17">
+      <c r="C104" s="32" t="n"/>
+    </row>
+    <row r="105" ht="12.8" customHeight="1" s="17">
+      <c r="C105" s="32" t="n"/>
+    </row>
+    <row r="106" ht="12.8" customHeight="1" s="17">
+      <c r="C106" s="32" t="n"/>
+    </row>
+    <row r="107" ht="12.8" customHeight="1" s="17">
+      <c r="C107" s="32" t="n"/>
+    </row>
+    <row r="108" ht="12.8" customHeight="1" s="17">
+      <c r="C108" s="32" t="n"/>
+    </row>
+    <row r="109" ht="12.8" customHeight="1" s="17">
+      <c r="C109" s="32" t="n"/>
+    </row>
+    <row r="110" ht="12.8" customHeight="1" s="17">
+      <c r="C110" s="32" t="n"/>
+    </row>
+    <row r="111" ht="12.8" customHeight="1" s="17">
+      <c r="C111" s="32" t="n"/>
+    </row>
+    <row r="112" ht="12.8" customHeight="1" s="17">
+      <c r="C112" s="32" t="n"/>
+    </row>
+    <row r="113" ht="12.8" customHeight="1" s="17">
+      <c r="C113" s="32" t="n"/>
+    </row>
+    <row r="114" ht="12.8" customHeight="1" s="17">
+      <c r="C114" s="32" t="n"/>
+    </row>
+    <row r="115" ht="12.8" customHeight="1" s="17">
+      <c r="C115" s="32" t="n"/>
+    </row>
+    <row r="116" ht="12.8" customHeight="1" s="17">
+      <c r="C116" s="32" t="n"/>
+    </row>
+    <row r="117" ht="12.8" customHeight="1" s="17">
+      <c r="C117" s="32" t="n"/>
+    </row>
+    <row r="118" ht="12.8" customHeight="1" s="17">
+      <c r="C118" s="32" t="n"/>
+    </row>
+    <row r="119" ht="12.8" customHeight="1" s="17">
+      <c r="C119" s="32" t="n"/>
+    </row>
+    <row r="120" ht="12.8" customHeight="1" s="17">
+      <c r="C120" s="32" t="n"/>
+    </row>
+    <row r="121" ht="12.8" customHeight="1" s="17">
+      <c r="C121" s="32" t="n"/>
+    </row>
+    <row r="122" ht="12.8" customHeight="1" s="17">
+      <c r="C122" s="32" t="n"/>
+    </row>
+    <row r="123" ht="12.8" customHeight="1" s="17">
+      <c r="C123" s="32" t="n"/>
+    </row>
+    <row r="124" ht="12.8" customHeight="1" s="17">
+      <c r="C124" s="32" t="n"/>
+    </row>
+    <row r="125" ht="12.8" customHeight="1" s="17">
+      <c r="C125" s="32" t="n"/>
+    </row>
+    <row r="126" ht="12.8" customHeight="1" s="17">
+      <c r="C126" s="32" t="n"/>
+    </row>
+    <row r="127" ht="12.8" customHeight="1" s="17">
+      <c r="C127" s="32" t="n"/>
+    </row>
+    <row r="128" ht="12.8" customHeight="1" s="17">
+      <c r="C128" s="32" t="n"/>
+    </row>
+    <row r="129" ht="12.8" customHeight="1" s="17">
+      <c r="C129" s="32" t="n"/>
+    </row>
+    <row r="130" ht="12.8" customHeight="1" s="17">
+      <c r="C130" s="32" t="n"/>
+    </row>
+    <row r="131" ht="12.8" customHeight="1" s="17">
+      <c r="C131" s="32" t="n"/>
+    </row>
+    <row r="132" ht="12.8" customHeight="1" s="17">
+      <c r="C132" s="32" t="n"/>
+    </row>
+    <row r="133" ht="12.8" customHeight="1" s="17">
+      <c r="C133" s="32" t="n"/>
+    </row>
+    <row r="134" ht="12.8" customHeight="1" s="17">
+      <c r="C134" s="32" t="n"/>
+    </row>
+    <row r="135" ht="12.8" customHeight="1" s="17">
+      <c r="C135" s="32" t="n"/>
+    </row>
+    <row r="136" ht="12.8" customHeight="1" s="17">
+      <c r="C136" s="32" t="n"/>
+    </row>
+    <row r="137" ht="12.8" customHeight="1" s="17">
+      <c r="C137" s="32" t="n"/>
+    </row>
+    <row r="138" ht="12.8" customHeight="1" s="17">
+      <c r="C138" s="32" t="n"/>
+    </row>
+    <row r="139" ht="12.8" customHeight="1" s="17">
+      <c r="C139" s="32" t="n"/>
+    </row>
+    <row r="140" ht="12.8" customHeight="1" s="17">
+      <c r="C140" s="32" t="n"/>
+    </row>
+    <row r="141" ht="12.8" customHeight="1" s="17">
+      <c r="C141" s="32" t="n"/>
+    </row>
+    <row r="142" ht="12.8" customHeight="1" s="17">
+      <c r="C142" s="32" t="n"/>
+    </row>
+    <row r="143" ht="12.8" customHeight="1" s="17">
+      <c r="C143" s="32" t="n"/>
+    </row>
+    <row r="144" ht="12.8" customHeight="1" s="17">
+      <c r="C144" s="32" t="n"/>
+    </row>
+    <row r="145" ht="12.8" customHeight="1" s="17">
+      <c r="C145" s="32" t="n"/>
+    </row>
+    <row r="146" ht="12.8" customHeight="1" s="17">
+      <c r="C146" s="32" t="n"/>
+    </row>
+    <row r="147" ht="12.8" customHeight="1" s="17">
+      <c r="C147" s="32" t="n"/>
+    </row>
+    <row r="148" ht="12.8" customHeight="1" s="17">
+      <c r="C148" s="32" t="n"/>
+    </row>
+    <row r="149" ht="12.8" customHeight="1" s="17">
+      <c r="C149" s="32" t="n"/>
+    </row>
+    <row r="150" ht="12.8" customHeight="1" s="17">
+      <c r="C150" s="32" t="n"/>
+    </row>
+    <row r="151" ht="12.8" customHeight="1" s="17">
+      <c r="C151" s="32" t="n"/>
+    </row>
+    <row r="152" ht="12.8" customHeight="1" s="17">
+      <c r="C152" s="32" t="n"/>
+    </row>
+    <row r="153" ht="12.8" customHeight="1" s="17">
+      <c r="C153" s="32" t="n"/>
+    </row>
+    <row r="154" ht="12.8" customHeight="1" s="17">
+      <c r="C154" s="32" t="n"/>
+    </row>
+    <row r="155" ht="12.8" customHeight="1" s="17">
+      <c r="C155" s="32" t="n"/>
+    </row>
+    <row r="156" ht="12.8" customHeight="1" s="17">
+      <c r="C156" s="32" t="n"/>
+    </row>
+    <row r="157" ht="12.8" customHeight="1" s="17">
+      <c r="C157" s="32" t="n"/>
+    </row>
+    <row r="158" ht="12.8" customHeight="1" s="17">
+      <c r="C158" s="32" t="n"/>
+    </row>
+    <row r="159" ht="12.8" customHeight="1" s="17">
+      <c r="C159" s="32" t="n"/>
+    </row>
+    <row r="160" ht="12.8" customHeight="1" s="17">
+      <c r="C160" s="32" t="n"/>
+    </row>
+    <row r="161" ht="12.8" customHeight="1" s="17">
+      <c r="C161" s="32" t="n"/>
+    </row>
+    <row r="162" ht="12.8" customHeight="1" s="17">
+      <c r="C162" s="32" t="n"/>
+    </row>
+    <row r="163" ht="12.8" customHeight="1" s="17">
+      <c r="C163" s="32" t="n"/>
+    </row>
+    <row r="164" ht="12.8" customHeight="1" s="17">
+      <c r="C164" s="32" t="n"/>
+    </row>
+    <row r="165" ht="12.8" customHeight="1" s="17">
+      <c r="C165" s="32" t="n"/>
+    </row>
+    <row r="166" ht="12.8" customHeight="1" s="17">
+      <c r="C166" s="32" t="n"/>
+    </row>
+    <row r="167" ht="12.8" customHeight="1" s="17">
+      <c r="C167" s="32" t="n"/>
+    </row>
+    <row r="168" ht="12.8" customHeight="1" s="17">
+      <c r="C168" s="32" t="n"/>
+    </row>
+    <row r="169" ht="12.8" customHeight="1" s="17">
+      <c r="C169" s="32" t="n"/>
+    </row>
+    <row r="170" ht="12.8" customHeight="1" s="17">
+      <c r="C170" s="32" t="n"/>
+    </row>
+    <row r="171" ht="12.8" customHeight="1" s="17">
+      <c r="C171" s="32" t="n"/>
+    </row>
+    <row r="172" ht="12.8" customHeight="1" s="17">
+      <c r="C172" s="32" t="n"/>
+    </row>
+    <row r="173" ht="12.8" customHeight="1" s="17">
+      <c r="C173" s="32" t="n"/>
+    </row>
+    <row r="174" ht="12.8" customHeight="1" s="17">
+      <c r="C174" s="32" t="n"/>
+    </row>
+    <row r="175" ht="12.8" customHeight="1" s="17">
+      <c r="C175" s="32" t="n"/>
+    </row>
+    <row r="176" ht="12.8" customHeight="1" s="17">
+      <c r="C176" s="32" t="n"/>
+    </row>
+    <row r="177" ht="12.8" customHeight="1" s="17">
+      <c r="C177" s="32" t="n"/>
+    </row>
+    <row r="178" ht="12.8" customHeight="1" s="17">
+      <c r="C178" s="32" t="n"/>
+    </row>
+    <row r="179" ht="12.8" customHeight="1" s="17">
+      <c r="C179" s="32" t="n"/>
+    </row>
+    <row r="180" ht="12.8" customHeight="1" s="17">
+      <c r="C180" s="32" t="n"/>
+    </row>
+    <row r="181" ht="12.8" customHeight="1" s="17">
+      <c r="C181" s="32" t="n"/>
+    </row>
+    <row r="182" ht="12.8" customHeight="1" s="17">
+      <c r="C182" s="32" t="n"/>
+    </row>
+    <row r="183" ht="12.8" customHeight="1" s="17">
+      <c r="C183" s="32" t="n"/>
+    </row>
+    <row r="184" ht="12.8" customHeight="1" s="17">
+      <c r="C184" s="32" t="n"/>
+    </row>
+    <row r="185" ht="12.8" customHeight="1" s="17">
+      <c r="C185" s="32" t="n"/>
+    </row>
+    <row r="186" ht="12.8" customHeight="1" s="17">
+      <c r="C186" s="32" t="n"/>
+    </row>
+    <row r="187" ht="12.8" customHeight="1" s="17">
+      <c r="C187" s="32" t="n"/>
+    </row>
+    <row r="188" ht="12.8" customHeight="1" s="17">
+      <c r="C188" s="32" t="n"/>
+    </row>
+    <row r="189" ht="12.8" customHeight="1" s="17">
+      <c r="C189" s="32" t="n"/>
+    </row>
+    <row r="190" ht="12.8" customHeight="1" s="17">
+      <c r="C190" s="32" t="n"/>
+    </row>
+    <row r="191" ht="12.8" customHeight="1" s="17">
+      <c r="C191" s="32" t="n"/>
+    </row>
+    <row r="192" ht="12.8" customHeight="1" s="17">
+      <c r="C192" s="32" t="n"/>
+    </row>
+    <row r="193" ht="12.8" customHeight="1" s="17">
+      <c r="C193" s="32" t="n"/>
+    </row>
+    <row r="194" ht="12.8" customHeight="1" s="17">
+      <c r="C194" s="32" t="n"/>
+    </row>
+    <row r="195" ht="12.8" customHeight="1" s="17">
+      <c r="C195" s="32" t="n"/>
+    </row>
+    <row r="196" ht="12.8" customHeight="1" s="17">
+      <c r="C196" s="32" t="n"/>
+    </row>
+    <row r="197" ht="12.8" customHeight="1" s="17">
+      <c r="C197" s="32" t="n"/>
+    </row>
+    <row r="198" ht="12.8" customHeight="1" s="17">
+      <c r="C198" s="32" t="n"/>
+    </row>
+    <row r="199" ht="12.8" customHeight="1" s="17">
+      <c r="C199" s="32" t="n"/>
+    </row>
+    <row r="200" ht="12.8" customHeight="1" s="17">
+      <c r="C200" s="32" t="n"/>
+    </row>
+    <row r="201" ht="12.8" customHeight="1" s="17">
+      <c r="C201" s="32" t="n"/>
+    </row>
+    <row r="202" ht="12.8" customHeight="1" s="17">
+      <c r="C202" s="32" t="n"/>
+    </row>
+    <row r="203" ht="12.8" customHeight="1" s="17">
+      <c r="C203" s="32" t="n"/>
+    </row>
+    <row r="204" ht="12.8" customHeight="1" s="17">
+      <c r="C204" s="32" t="n"/>
+    </row>
+    <row r="205" ht="12.8" customHeight="1" s="17">
+      <c r="C205" s="32" t="n"/>
+    </row>
+    <row r="206" ht="12.8" customHeight="1" s="17">
+      <c r="C206" s="32" t="n"/>
+    </row>
+    <row r="207" ht="12.8" customHeight="1" s="17">
+      <c r="C207" s="32" t="n"/>
+    </row>
+    <row r="208" ht="12.8" customHeight="1" s="17">
+      <c r="C208" s="32" t="n"/>
+    </row>
+    <row r="209" ht="12.8" customHeight="1" s="17">
+      <c r="C209" s="32" t="n"/>
+    </row>
+    <row r="210" ht="12.8" customHeight="1" s="17">
+      <c r="C210" s="32" t="n"/>
+    </row>
+    <row r="211" ht="12.8" customHeight="1" s="17">
+      <c r="C211" s="32" t="n"/>
+    </row>
+    <row r="212" ht="12.8" customHeight="1" s="17">
+      <c r="C212" s="32" t="n"/>
+    </row>
+    <row r="213" ht="12.8" customHeight="1" s="17">
+      <c r="C213" s="32" t="n"/>
+    </row>
+    <row r="214" ht="12.8" customHeight="1" s="17">
+      <c r="C214" s="32" t="n"/>
+    </row>
+    <row r="215" ht="12.8" customHeight="1" s="17">
+      <c r="C215" s="32" t="n"/>
+    </row>
+    <row r="216" ht="12.8" customHeight="1" s="17">
+      <c r="C216" s="32" t="n"/>
+    </row>
+    <row r="217" ht="12.8" customHeight="1" s="17">
+      <c r="C217" s="32" t="n"/>
+    </row>
+    <row r="218" ht="12.8" customHeight="1" s="17">
+      <c r="C218" s="32" t="n"/>
+    </row>
+    <row r="219" ht="12.8" customHeight="1" s="17">
+      <c r="C219" s="32" t="n"/>
+    </row>
+    <row r="220" ht="12.8" customHeight="1" s="17">
+      <c r="C220" s="32" t="n"/>
+    </row>
+    <row r="221" ht="12.8" customHeight="1" s="17">
+      <c r="C221" s="32" t="n"/>
+    </row>
+    <row r="222" ht="12.8" customHeight="1" s="17">
+      <c r="C222" s="32" t="n"/>
+    </row>
+    <row r="223" ht="12.8" customHeight="1" s="17">
+      <c r="C223" s="32" t="n"/>
+    </row>
+    <row r="224" ht="12.8" customHeight="1" s="17">
+      <c r="C224" s="32" t="n"/>
+    </row>
+    <row r="225" ht="12.8" customHeight="1" s="17">
+      <c r="C225" s="32" t="n"/>
+    </row>
+    <row r="226" ht="12.8" customHeight="1" s="17">
+      <c r="C226" s="32" t="n"/>
+    </row>
+    <row r="227" ht="12.8" customHeight="1" s="17">
+      <c r="C227" s="32" t="n"/>
+    </row>
+    <row r="228" ht="12.8" customHeight="1" s="17">
+      <c r="C228" s="32" t="n"/>
+    </row>
+    <row r="229" ht="12.8" customHeight="1" s="17">
+      <c r="C229" s="32" t="n"/>
+    </row>
+    <row r="230" ht="12.8" customHeight="1" s="17">
+      <c r="C230" s="32" t="n"/>
+    </row>
+    <row r="231" ht="12.8" customHeight="1" s="17">
+      <c r="C231" s="32" t="n"/>
+    </row>
+    <row r="232" ht="12.8" customHeight="1" s="17">
+      <c r="C232" s="32" t="n"/>
+    </row>
+    <row r="233" ht="12.8" customHeight="1" s="17">
+      <c r="C233" s="32" t="n"/>
+    </row>
+    <row r="234" ht="12.8" customHeight="1" s="17">
+      <c r="C234" s="32" t="n"/>
+    </row>
+    <row r="235" ht="12.8" customHeight="1" s="17">
+      <c r="C235" s="32" t="n"/>
+    </row>
+    <row r="236" ht="12.8" customHeight="1" s="17">
+      <c r="C236" s="32" t="n"/>
+    </row>
+    <row r="237" ht="12.8" customHeight="1" s="17">
+      <c r="C237" s="32" t="n"/>
+    </row>
+    <row r="238" ht="12.8" customHeight="1" s="17">
+      <c r="C238" s="32" t="n"/>
+    </row>
+    <row r="239" ht="12.8" customHeight="1" s="17">
+      <c r="C239" s="32" t="n"/>
+    </row>
+    <row r="240" ht="12.8" customHeight="1" s="17">
+      <c r="C240" s="32" t="n"/>
+    </row>
+    <row r="241" ht="12.8" customHeight="1" s="17">
+      <c r="C241" s="32" t="n"/>
+    </row>
+    <row r="242" ht="12.8" customHeight="1" s="17">
+      <c r="C242" s="32" t="n"/>
+    </row>
+    <row r="243" ht="12.8" customHeight="1" s="17">
+      <c r="C243" s="32" t="n"/>
+    </row>
+    <row r="244" ht="12.8" customHeight="1" s="17">
+      <c r="C244" s="32" t="n"/>
+    </row>
+    <row r="245" ht="12.8" customHeight="1" s="17">
+      <c r="C245" s="32" t="n"/>
+    </row>
+    <row r="246" ht="12.8" customHeight="1" s="17">
+      <c r="C246" s="32" t="n"/>
+    </row>
+    <row r="247" ht="12.8" customHeight="1" s="17">
+      <c r="C247" s="32" t="n"/>
+    </row>
+    <row r="248" ht="12.8" customHeight="1" s="17">
+      <c r="C248" s="32" t="n"/>
+    </row>
+    <row r="249" ht="12.8" customHeight="1" s="17">
+      <c r="C249" s="32" t="n"/>
+    </row>
+    <row r="250" ht="12.8" customHeight="1" s="17">
+      <c r="C250" s="32" t="n"/>
+    </row>
+    <row r="251" ht="12.8" customHeight="1" s="17">
+      <c r="C251" s="32" t="n"/>
+    </row>
+    <row r="252" ht="12.8" customHeight="1" s="17">
+      <c r="C252" s="32" t="n"/>
+    </row>
+    <row r="253" ht="12.8" customHeight="1" s="17">
+      <c r="C253" s="32" t="n"/>
+    </row>
+    <row r="254" ht="12.8" customHeight="1" s="17">
+      <c r="C254" s="32" t="n"/>
+    </row>
+    <row r="255" ht="12.8" customHeight="1" s="17">
+      <c r="C255" s="32" t="n"/>
+    </row>
+    <row r="256" ht="12.8" customHeight="1" s="17">
+      <c r="C256" s="32" t="n"/>
+    </row>
+    <row r="257" ht="12.8" customHeight="1" s="17">
+      <c r="C257" s="32" t="n"/>
+    </row>
+    <row r="258" ht="12.8" customHeight="1" s="17">
+      <c r="C258" s="32" t="n"/>
+    </row>
+    <row r="259" ht="12.8" customHeight="1" s="17">
+      <c r="C259" s="32" t="n"/>
+    </row>
+    <row r="260" ht="12.8" customHeight="1" s="17">
+      <c r="C260" s="32" t="n"/>
+    </row>
+    <row r="261" ht="12.8" customHeight="1" s="17">
+      <c r="C261" s="32" t="n"/>
+    </row>
+    <row r="262" ht="12.8" customHeight="1" s="17">
+      <c r="C262" s="32" t="n"/>
+    </row>
+    <row r="263" ht="12.8" customHeight="1" s="17">
+      <c r="C263" s="32" t="n"/>
+    </row>
+    <row r="264" ht="12.8" customHeight="1" s="17">
+      <c r="C264" s="32" t="n"/>
+    </row>
+    <row r="265" ht="12.8" customHeight="1" s="17">
+      <c r="C265" s="32" t="n"/>
+    </row>
+    <row r="266" ht="12.8" customHeight="1" s="17">
+      <c r="C266" s="32" t="n"/>
+    </row>
+    <row r="267" ht="12.8" customHeight="1" s="17">
+      <c r="C267" s="32" t="n"/>
+    </row>
+    <row r="268" ht="12.8" customHeight="1" s="17">
+      <c r="C268" s="32" t="n"/>
+    </row>
+    <row r="269" ht="12.8" customHeight="1" s="17">
+      <c r="C269" s="32" t="n"/>
+    </row>
+    <row r="270" ht="12.8" customHeight="1" s="17">
+      <c r="C270" s="32" t="n"/>
+    </row>
+    <row r="271" ht="12.8" customHeight="1" s="17">
+      <c r="C271" s="32" t="n"/>
+    </row>
+    <row r="272" ht="12.8" customHeight="1" s="17">
+      <c r="C272" s="32" t="n"/>
+    </row>
+    <row r="273" ht="12.8" customHeight="1" s="17">
+      <c r="C273" s="32" t="n"/>
+    </row>
+    <row r="274" ht="12.8" customHeight="1" s="17">
+      <c r="C274" s="32" t="n"/>
+    </row>
+    <row r="275" ht="12.8" customHeight="1" s="17">
+      <c r="C275" s="32" t="n"/>
+    </row>
+    <row r="276" ht="12.8" customHeight="1" s="17">
+      <c r="C276" s="32" t="n"/>
+    </row>
+    <row r="277" ht="12.8" customHeight="1" s="17">
+      <c r="C277" s="32" t="n"/>
+    </row>
+    <row r="278" ht="12.8" customHeight="1" s="17">
+      <c r="C278" s="32" t="n"/>
+    </row>
+    <row r="279" ht="12.8" customHeight="1" s="17">
+      <c r="C279" s="32" t="n"/>
+    </row>
+    <row r="280" ht="12.8" customHeight="1" s="17">
+      <c r="C280" s="32" t="n"/>
+    </row>
+    <row r="281" ht="12.8" customHeight="1" s="17">
+      <c r="C281" s="32" t="n"/>
+    </row>
+    <row r="282" ht="12.8" customHeight="1" s="17">
+      <c r="C282" s="32" t="n"/>
+    </row>
+    <row r="283" ht="12.8" customHeight="1" s="17">
+      <c r="C283" s="32" t="n"/>
+    </row>
+    <row r="284" ht="12.8" customHeight="1" s="17">
+      <c r="C284" s="32" t="n"/>
+    </row>
+    <row r="285" ht="12.8" customHeight="1" s="17">
+      <c r="C285" s="32" t="n"/>
+    </row>
+    <row r="286" ht="12.8" customHeight="1" s="17">
+      <c r="C286" s="32" t="n"/>
+    </row>
+    <row r="287" ht="12.8" customHeight="1" s="17">
+      <c r="C287" s="32" t="n"/>
+    </row>
+    <row r="288" ht="12.8" customHeight="1" s="17">
+      <c r="C288" s="32" t="n"/>
+    </row>
+    <row r="289" ht="12.8" customHeight="1" s="17">
+      <c r="C289" s="32" t="n"/>
+    </row>
+    <row r="290" ht="12.8" customHeight="1" s="17">
+      <c r="C290" s="32" t="n"/>
+    </row>
+    <row r="291" ht="12.8" customHeight="1" s="17">
+      <c r="C291" s="32" t="n"/>
+    </row>
+    <row r="292" ht="12.8" customHeight="1" s="17">
+      <c r="C292" s="32" t="n"/>
+    </row>
+    <row r="293" ht="12.8" customHeight="1" s="17">
+      <c r="C293" s="32" t="n"/>
+    </row>
+    <row r="294" ht="12.8" customHeight="1" s="17">
+      <c r="C294" s="32" t="n"/>
+    </row>
+    <row r="295" ht="12.8" customHeight="1" s="17">
+      <c r="C295" s="32" t="n"/>
+    </row>
+    <row r="296" ht="12.8" customHeight="1" s="17">
+      <c r="C296" s="32" t="n"/>
+    </row>
+    <row r="297" ht="12.8" customHeight="1" s="17">
+      <c r="C297" s="32" t="n"/>
+    </row>
+    <row r="298" ht="12.8" customHeight="1" s="17">
+      <c r="C298" s="32" t="n"/>
+    </row>
+    <row r="299" ht="12.8" customHeight="1" s="17">
+      <c r="C299" s="32" t="n"/>
+    </row>
+    <row r="300" ht="12.8" customHeight="1" s="17">
+      <c r="C300" s="32" t="n"/>
+    </row>
+    <row r="301" ht="12.8" customHeight="1" s="17">
+      <c r="C301" s="32" t="n"/>
+    </row>
+    <row r="302" ht="12.8" customHeight="1" s="17">
+      <c r="C302" s="32" t="n"/>
+    </row>
+    <row r="303" ht="12.8" customHeight="1" s="17">
+      <c r="C303" s="32" t="n"/>
+    </row>
+    <row r="304" ht="12.8" customHeight="1" s="17">
+      <c r="C304" s="32" t="n"/>
+    </row>
+    <row r="305" ht="12.8" customHeight="1" s="17">
+      <c r="C305" s="32" t="n"/>
+    </row>
+    <row r="306" ht="12.8" customHeight="1" s="17">
+      <c r="C306" s="32" t="n"/>
+    </row>
+    <row r="307" ht="12.8" customHeight="1" s="17">
+      <c r="C307" s="32" t="n"/>
+    </row>
+    <row r="308" ht="12.8" customHeight="1" s="17">
+      <c r="C308" s="32" t="n"/>
+    </row>
+    <row r="309" ht="12.8" customHeight="1" s="17">
+      <c r="C309" s="32" t="n"/>
+    </row>
+    <row r="310" ht="12.8" customHeight="1" s="17">
+      <c r="C310" s="32" t="n"/>
+    </row>
+    <row r="311" ht="12.8" customHeight="1" s="17">
+      <c r="C311" s="32" t="n"/>
+    </row>
+    <row r="312" ht="12.8" customHeight="1" s="17">
+      <c r="C312" s="32" t="n"/>
+    </row>
+    <row r="313" ht="12.8" customHeight="1" s="17">
+      <c r="C313" s="32" t="n"/>
+    </row>
+    <row r="314" ht="12.8" customHeight="1" s="17">
+      <c r="C314" s="32" t="n"/>
+    </row>
+    <row r="315" ht="12.8" customHeight="1" s="17">
+      <c r="C315" s="32" t="n"/>
+    </row>
+    <row r="316" ht="12.8" customHeight="1" s="17">
+      <c r="C316" s="32" t="n"/>
+    </row>
+    <row r="317" ht="12.8" customHeight="1" s="17">
+      <c r="C317" s="32" t="n"/>
+    </row>
+    <row r="318" ht="12.8" customHeight="1" s="17">
+      <c r="C318" s="32" t="n"/>
+    </row>
+    <row r="319" ht="12.8" customHeight="1" s="17">
+      <c r="C319" s="32" t="n"/>
+    </row>
+    <row r="1048572" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="17"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="35" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:P319"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="13.5" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="37.57" customWidth="1" style="16" min="1" max="1"/>
+    <col width="34.43" customWidth="1" style="16" min="2" max="2"/>
+    <col width="38.43" customWidth="1" style="16" min="3" max="3"/>
+    <col width="17.59" customWidth="1" style="16" min="4" max="4"/>
+    <col width="15.42" customWidth="1" style="16" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.75" customHeight="1" s="17">
+      <c r="A1" s="18" t="inlineStr">
+        <is>
+          <t>annee :</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="20" t="n"/>
+      <c r="D1" s="21" t="n"/>
+      <c r="E1" s="21" t="n"/>
+      <c r="F1" s="21" t="n"/>
+      <c r="G1" s="21" t="n"/>
+      <c r="H1" s="21" t="n"/>
+      <c r="I1" s="21" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="21" t="n"/>
+      <c r="L1" s="21" t="n"/>
+      <c r="M1" s="21" t="n"/>
+      <c r="N1" s="21" t="n"/>
+      <c r="O1" s="21" t="n"/>
+      <c r="P1" s="21" t="n"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" s="17">
+      <c r="A2" s="18" t="inlineStr">
+        <is>
+          <t>semestre :</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="n"/>
+      <c r="D2" s="21" t="n"/>
+      <c r="E2" s="21" t="n"/>
+      <c r="F2" s="21" t="n"/>
+      <c r="G2" s="21" t="n"/>
+      <c r="H2" s="21" t="n"/>
+      <c r="I2" s="21" t="n"/>
+      <c r="J2" s="21" t="n"/>
+      <c r="K2" s="21" t="n"/>
+      <c r="L2" s="21" t="n"/>
+      <c r="M2" s="21" t="n"/>
+      <c r="N2" s="21" t="n"/>
+      <c r="O2" s="21" t="n"/>
+      <c r="P2" s="21" t="n"/>
+    </row>
+    <row r="3" ht="21.75" customHeight="1" s="17">
+      <c r="A3" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">matière : </t>
+        </is>
+      </c>
+      <c r="B3" s="23" t="inlineStr">
+        <is>
+          <t>Base de données 1</t>
+        </is>
+      </c>
+      <c r="C3" s="24" t="n"/>
+    </row>
+    <row r="4" ht="21.75" customHeight="1" s="17">
+      <c r="A4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est une evaluation : </t>
+        </is>
+      </c>
+      <c r="B4" s="23" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C4" s="26" t="inlineStr">
+        <is>
+          <t>Oui ou Non</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Date : </t>
+        </is>
+      </c>
+      <c r="B5" s="33" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C5" s="26" t="n"/>
+    </row>
+    <row r="6" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libelle : </t>
+        </is>
+      </c>
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>Evaluation N°2</t>
+        </is>
+      </c>
+      <c r="C6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="21.75" customFormat="1" customHeight="1" s="27">
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pondération : </t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" s="26" t="n"/>
+    </row>
+    <row r="8" ht="21" customFormat="1" customHeight="1" s="27">
+      <c r="A8" s="28" t="n"/>
+      <c r="B8" s="28" t="n"/>
+      <c r="C8" s="26" t="n"/>
+    </row>
+    <row r="9" ht="21" customFormat="1" customHeight="1" s="27">
+      <c r="A9" s="29" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B9" s="29" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="C9" s="30" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="n"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="17">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ABDOULAYE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aliya</t>
+        </is>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="17">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADJEBADJA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Abdoul-chakour</t>
+        </is>
+      </c>
+      <c r="C11" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="17">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AGAO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Akila Rois</t>
+        </is>
+      </c>
+      <c r="C12" s="32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="17">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AKPARO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Olivier</t>
+        </is>
+      </c>
+      <c r="C13" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="17">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMONA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Birewa Audrey</t>
+        </is>
+      </c>
+      <c r="C14" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="17">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AROUNA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ramdane</t>
+        </is>
+      </c>
+      <c r="C15" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8" customHeight="1" s="17">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BABA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Traore Hannatou</t>
+        </is>
+      </c>
+      <c r="C16" s="32" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="12.8" customHeight="1" s="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BAH-TOURE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fatiha</t>
+        </is>
+      </c>
+      <c r="C17" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8" customHeight="1" s="17">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BOKOPOLO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Yahliou Phinéas</t>
+        </is>
+      </c>
+      <c r="C18" s="32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="12.8" customHeight="1" s="17">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DADO </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Koffi Jean Socrate</t>
+        </is>
+      </c>
+      <c r="C19" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="12.8" customHeight="1" s="17">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KOUTEMA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ditoma</t>
+        </is>
+      </c>
+      <c r="C20" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.8" customHeight="1" s="17">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NAZEGA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Youssif</t>
+        </is>
+      </c>
+      <c r="C21" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="12.8" customHeight="1" s="17">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NONDOOU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Essoronda</t>
+        </is>
+      </c>
+      <c r="C22" s="32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="17">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>OULA BARNA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Moubarak</t>
+        </is>
+      </c>
+      <c r="C23" s="32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="12.8" customHeight="1" s="17">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PAKONDE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mazalou Célia</t>
+        </is>
+      </c>
+      <c r="C24" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="12.8" customHeight="1" s="17">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TCHALA TALAKI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Kibandou Stéphanie</t>
+        </is>
+      </c>
+      <c r="C25" s="32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="12.8" customHeight="1" s="17">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TCHATCHAW </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gnénam Silas</t>
+        </is>
+      </c>
+      <c r="C26" s="32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="12.8" customHeight="1" s="17">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TEOURI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fridaouss</t>
+        </is>
+      </c>
+      <c r="C27" s="32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="12.8" customHeight="1" s="17">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TRAORE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>El-imrane Adjibola</t>
+        </is>
+      </c>
+      <c r="C28" s="32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="12.8" customHeight="1" s="17">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>YERIMA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mansour</t>
+        </is>
+      </c>
+      <c r="C29" s="32" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="12.8" customHeight="1" s="17">
+      <c r="C30" s="32" t="n"/>
+    </row>
+    <row r="31" ht="12.8" customHeight="1" s="17">
+      <c r="C31" s="32" t="n"/>
+    </row>
+    <row r="32" ht="12.8" customHeight="1" s="17">
+      <c r="C32" s="32" t="n"/>
+    </row>
+    <row r="33" ht="12.8" customHeight="1" s="17">
+      <c r="C33" s="32" t="n"/>
+    </row>
+    <row r="34" ht="12.8" customHeight="1" s="17">
+      <c r="C34" s="32" t="n"/>
+    </row>
+    <row r="35" ht="12.8" customHeight="1" s="17">
+      <c r="C35" s="32" t="n"/>
+    </row>
+    <row r="36" ht="12.8" customHeight="1" s="17">
+      <c r="C36" s="32" t="n"/>
+    </row>
+    <row r="37" ht="12.8" customHeight="1" s="17">
+      <c r="C37" s="32" t="n"/>
+    </row>
+    <row r="38" ht="12.8" customHeight="1" s="17">
+      <c r="C38" s="32" t="n"/>
+    </row>
+    <row r="39" ht="12.8" customHeight="1" s="17">
+      <c r="C39" s="32" t="n"/>
+    </row>
+    <row r="40" ht="12.8" customHeight="1" s="17">
+      <c r="C40" s="32" t="n"/>
+    </row>
+    <row r="41" ht="12.8" customHeight="1" s="17">
+      <c r="C41" s="32" t="n"/>
+    </row>
+    <row r="42" ht="12.8" customHeight="1" s="17">
+      <c r="C42" s="32" t="n"/>
+    </row>
+    <row r="43" ht="12.8" customHeight="1" s="17">
+      <c r="C43" s="32" t="n"/>
+    </row>
+    <row r="44" ht="12.8" customHeight="1" s="17">
+      <c r="C44" s="32" t="n"/>
+    </row>
+    <row r="45" ht="12.8" customHeight="1" s="17">
+      <c r="C45" s="32" t="n"/>
+    </row>
+    <row r="46" ht="12.8" customHeight="1" s="17">
+      <c r="C46" s="32" t="n"/>
+    </row>
+    <row r="47" ht="12.8" customHeight="1" s="17">
+      <c r="C47" s="32" t="n"/>
+    </row>
+    <row r="48" ht="12.8" customHeight="1" s="17">
+      <c r="C48" s="32" t="n"/>
+    </row>
+    <row r="49" ht="12.8" customHeight="1" s="17">
+      <c r="C49" s="32" t="n"/>
+    </row>
+    <row r="50" ht="12.8" customHeight="1" s="17">
+      <c r="C50" s="32" t="n"/>
+    </row>
+    <row r="51" ht="12.8" customHeight="1" s="17">
+      <c r="C51" s="32" t="n"/>
+    </row>
+    <row r="52" ht="12.8" customHeight="1" s="17">
+      <c r="C52" s="32" t="n"/>
+    </row>
+    <row r="53" ht="12.8" customHeight="1" s="17">
+      <c r="C53" s="32" t="n"/>
+    </row>
+    <row r="54" ht="12.8" customHeight="1" s="17">
+      <c r="C54" s="32" t="n"/>
+    </row>
+    <row r="55" ht="12.8" customHeight="1" s="17">
+      <c r="C55" s="32" t="n"/>
+    </row>
+    <row r="56" ht="12.8" customHeight="1" s="17">
+      <c r="C56" s="32" t="n"/>
+    </row>
+    <row r="57" ht="12.8" customHeight="1" s="17">
+      <c r="C57" s="32" t="n"/>
+    </row>
+    <row r="58" ht="12.8" customHeight="1" s="17">
+      <c r="C58" s="32" t="n"/>
+    </row>
+    <row r="59" ht="12.8" customHeight="1" s="17">
+      <c r="C59" s="32" t="n"/>
+    </row>
+    <row r="60" ht="12.8" customHeight="1" s="17">
+      <c r="C60" s="32" t="n"/>
+    </row>
+    <row r="61" ht="12.8" customHeight="1" s="17">
+      <c r="C61" s="32" t="n"/>
+    </row>
+    <row r="62" ht="12.8" customHeight="1" s="17">
+      <c r="C62" s="32" t="n"/>
+    </row>
+    <row r="63" ht="12.8" customHeight="1" s="17">
+      <c r="C63" s="32" t="n"/>
+    </row>
+    <row r="64" ht="12.8" customHeight="1" s="17">
+      <c r="C64" s="32" t="n"/>
+    </row>
+    <row r="65" ht="12.8" customHeight="1" s="17">
+      <c r="C65" s="32" t="n"/>
+    </row>
+    <row r="66" ht="12.8" customHeight="1" s="17">
+      <c r="C66" s="32" t="n"/>
+    </row>
+    <row r="67" ht="12.8" customHeight="1" s="17">
+      <c r="C67" s="32" t="n"/>
+    </row>
+    <row r="68" ht="12.8" customHeight="1" s="17">
+      <c r="C68" s="32" t="n"/>
+    </row>
+    <row r="69" ht="12.8" customHeight="1" s="17">
+      <c r="C69" s="32" t="n"/>
+    </row>
+    <row r="70" ht="12.8" customHeight="1" s="17">
+      <c r="C70" s="32" t="n"/>
+    </row>
+    <row r="71" ht="12.8" customHeight="1" s="17">
+      <c r="C71" s="32" t="n"/>
+    </row>
+    <row r="72" ht="12.8" customHeight="1" s="17">
+      <c r="C72" s="32" t="n"/>
+    </row>
+    <row r="73" ht="12.8" customHeight="1" s="17">
+      <c r="C73" s="32" t="n"/>
+    </row>
+    <row r="74" ht="12.8" customHeight="1" s="17">
+      <c r="C74" s="32" t="n"/>
+    </row>
+    <row r="75" ht="12.8" customHeight="1" s="17">
+      <c r="C75" s="32" t="n"/>
+    </row>
+    <row r="76" ht="12.8" customHeight="1" s="17">
+      <c r="C76" s="32" t="n"/>
+    </row>
+    <row r="77" ht="12.8" customHeight="1" s="17">
+      <c r="C77" s="32" t="n"/>
+    </row>
+    <row r="78" ht="12.8" customHeight="1" s="17">
+      <c r="C78" s="32" t="n"/>
+    </row>
+    <row r="79" ht="12.8" customHeight="1" s="17">
+      <c r="C79" s="32" t="n"/>
+    </row>
+    <row r="80" ht="12.8" customHeight="1" s="17">
+      <c r="C80" s="32" t="n"/>
+    </row>
+    <row r="81" ht="12.8" customHeight="1" s="17">
+      <c r="C81" s="32" t="n"/>
+    </row>
+    <row r="82" ht="12.8" customHeight="1" s="17">
+      <c r="C82" s="32" t="n"/>
+    </row>
+    <row r="83" ht="12.8" customHeight="1" s="17">
+      <c r="C83" s="32" t="n"/>
+    </row>
+    <row r="84" ht="12.8" customHeight="1" s="17">
+      <c r="C84" s="32" t="n"/>
+    </row>
+    <row r="85" ht="12.8" customHeight="1" s="17">
+      <c r="C85" s="32" t="n"/>
+    </row>
+    <row r="86" ht="12.8" customHeight="1" s="17">
+      <c r="C86" s="32" t="n"/>
+    </row>
+    <row r="87" ht="12.8" customHeight="1" s="17">
+      <c r="C87" s="32" t="n"/>
+    </row>
+    <row r="88" ht="12.8" customHeight="1" s="17">
+      <c r="C88" s="32" t="n"/>
+    </row>
+    <row r="89" ht="12.8" customHeight="1" s="17">
+      <c r="C89" s="32" t="n"/>
+    </row>
+    <row r="90" ht="12.8" customHeight="1" s="17">
+      <c r="C90" s="32" t="n"/>
+    </row>
+    <row r="91" ht="12.8" customHeight="1" s="17">
+      <c r="C91" s="32" t="n"/>
+    </row>
+    <row r="92" ht="12.8" customHeight="1" s="17">
+      <c r="C92" s="32" t="n"/>
+    </row>
+    <row r="93" ht="12.8" customHeight="1" s="17">
+      <c r="C93" s="32" t="n"/>
+    </row>
+    <row r="94" ht="12.8" customHeight="1" s="17">
+      <c r="C94" s="32" t="n"/>
+    </row>
+    <row r="95" ht="12.8" customHeight="1" s="17">
+      <c r="C95" s="32" t="n"/>
+    </row>
+    <row r="96" ht="12.8" customHeight="1" s="17">
+      <c r="C96" s="32" t="n"/>
+    </row>
+    <row r="97" ht="12.8" customHeight="1" s="17">
+      <c r="C97" s="32" t="n"/>
+    </row>
+    <row r="98" ht="12.8" customHeight="1" s="17">
+      <c r="C98" s="32" t="n"/>
+    </row>
+    <row r="99" ht="12.8" customHeight="1" s="17">
+      <c r="C99" s="32" t="n"/>
+    </row>
+    <row r="100" ht="12.8" customHeight="1" s="17">
+      <c r="C100" s="32" t="n"/>
+    </row>
+    <row r="101" ht="12.8" customHeight="1" s="17">
+      <c r="C101" s="32" t="n"/>
+    </row>
+    <row r="102" ht="12.8" customHeight="1" s="17">
+      <c r="C102" s="32" t="n"/>
+    </row>
+    <row r="103" ht="12.8" customHeight="1" s="17">
+      <c r="C103" s="32" t="n"/>
+    </row>
+    <row r="104" ht="12.8" customHeight="1" s="17">
+      <c r="C104" s="32" t="n"/>
+    </row>
+    <row r="105" ht="12.8" customHeight="1" s="17">
+      <c r="C105" s="32" t="n"/>
+    </row>
+    <row r="106" ht="12.8" customHeight="1" s="17">
+      <c r="C106" s="32" t="n"/>
+    </row>
+    <row r="107" ht="12.8" customHeight="1" s="17">
+      <c r="C107" s="32" t="n"/>
+    </row>
+    <row r="108" ht="12.8" customHeight="1" s="17">
+      <c r="C108" s="32" t="n"/>
+    </row>
+    <row r="109" ht="12.8" customHeight="1" s="17">
+      <c r="C109" s="32" t="n"/>
+    </row>
+    <row r="110" ht="12.8" customHeight="1" s="17">
+      <c r="C110" s="32" t="n"/>
+    </row>
+    <row r="111" ht="12.8" customHeight="1" s="17">
+      <c r="C111" s="32" t="n"/>
+    </row>
+    <row r="112" ht="12.8" customHeight="1" s="17">
+      <c r="C112" s="32" t="n"/>
+    </row>
+    <row r="113" ht="12.8" customHeight="1" s="17">
+      <c r="C113" s="32" t="n"/>
+    </row>
+    <row r="114" ht="12.8" customHeight="1" s="17">
+      <c r="C114" s="32" t="n"/>
+    </row>
+    <row r="115" ht="12.8" customHeight="1" s="17">
+      <c r="C115" s="32" t="n"/>
+    </row>
+    <row r="116" ht="12.8" customHeight="1" s="17">
+      <c r="C116" s="32" t="n"/>
+    </row>
+    <row r="117" ht="12.8" customHeight="1" s="17">
+      <c r="C117" s="32" t="n"/>
+    </row>
+    <row r="118" ht="12.8" customHeight="1" s="17">
+      <c r="C118" s="32" t="n"/>
+    </row>
+    <row r="119" ht="12.8" customHeight="1" s="17">
+      <c r="C119" s="32" t="n"/>
+    </row>
+    <row r="120" ht="12.8" customHeight="1" s="17">
+      <c r="C120" s="32" t="n"/>
+    </row>
+    <row r="121" ht="12.8" customHeight="1" s="17">
+      <c r="C121" s="32" t="n"/>
+    </row>
+    <row r="122" ht="12.8" customHeight="1" s="17">
+      <c r="C122" s="32" t="n"/>
+    </row>
+    <row r="123" ht="12.8" customHeight="1" s="17">
+      <c r="C123" s="32" t="n"/>
+    </row>
+    <row r="124" ht="12.8" customHeight="1" s="17">
+      <c r="C124" s="32" t="n"/>
+    </row>
+    <row r="125" ht="12.8" customHeight="1" s="17">
+      <c r="C125" s="32" t="n"/>
+    </row>
+    <row r="126" ht="12.8" customHeight="1" s="17">
+      <c r="C126" s="32" t="n"/>
+    </row>
+    <row r="127" ht="12.8" customHeight="1" s="17">
+      <c r="C127" s="32" t="n"/>
+    </row>
+    <row r="128" ht="12.8" customHeight="1" s="17">
+      <c r="C128" s="32" t="n"/>
+    </row>
+    <row r="129" ht="12.8" customHeight="1" s="17">
+      <c r="C129" s="32" t="n"/>
+    </row>
+    <row r="130" ht="12.8" customHeight="1" s="17">
+      <c r="C130" s="32" t="n"/>
+    </row>
+    <row r="131" ht="12.8" customHeight="1" s="17">
+      <c r="C131" s="32" t="n"/>
+    </row>
+    <row r="132" ht="12.8" customHeight="1" s="17">
+      <c r="C132" s="32" t="n"/>
+    </row>
+    <row r="133" ht="12.8" customHeight="1" s="17">
+      <c r="C133" s="32" t="n"/>
+    </row>
+    <row r="134" ht="12.8" customHeight="1" s="17">
+      <c r="C134" s="32" t="n"/>
+    </row>
+    <row r="135" ht="12.8" customHeight="1" s="17">
+      <c r="C135" s="32" t="n"/>
+    </row>
+    <row r="136" ht="12.8" customHeight="1" s="17">
+      <c r="C136" s="32" t="n"/>
+    </row>
+    <row r="137" ht="12.8" customHeight="1" s="17">
+      <c r="C137" s="32" t="n"/>
+    </row>
+    <row r="138" ht="12.8" customHeight="1" s="17">
+      <c r="C138" s="32" t="n"/>
+    </row>
+    <row r="139" ht="12.8" customHeight="1" s="17">
+      <c r="C139" s="32" t="n"/>
+    </row>
+    <row r="140" ht="12.8" customHeight="1" s="17">
+      <c r="C140" s="32" t="n"/>
+    </row>
+    <row r="141" ht="12.8" customHeight="1" s="17">
+      <c r="C141" s="32" t="n"/>
+    </row>
+    <row r="142" ht="12.8" customHeight="1" s="17">
+      <c r="C142" s="32" t="n"/>
+    </row>
+    <row r="143" ht="12.8" customHeight="1" s="17">
+      <c r="C143" s="32" t="n"/>
+    </row>
+    <row r="144" ht="12.8" customHeight="1" s="17">
+      <c r="C144" s="32" t="n"/>
+    </row>
+    <row r="145" ht="12.8" customHeight="1" s="17">
+      <c r="C145" s="32" t="n"/>
+    </row>
+    <row r="146" ht="12.8" customHeight="1" s="17">
+      <c r="C146" s="32" t="n"/>
+    </row>
+    <row r="147" ht="12.8" customHeight="1" s="17">
+      <c r="C147" s="32" t="n"/>
+    </row>
+    <row r="148" ht="12.8" customHeight="1" s="17">
+      <c r="C148" s="32" t="n"/>
+    </row>
+    <row r="149" ht="12.8" customHeight="1" s="17">
+      <c r="C149" s="32" t="n"/>
+    </row>
+    <row r="150" ht="12.8" customHeight="1" s="17">
+      <c r="C150" s="32" t="n"/>
+    </row>
+    <row r="151" ht="12.8" customHeight="1" s="17">
+      <c r="C151" s="32" t="n"/>
+    </row>
+    <row r="152" ht="12.8" customHeight="1" s="17">
+      <c r="C152" s="32" t="n"/>
+    </row>
+    <row r="153" ht="12.8" customHeight="1" s="17">
+      <c r="C153" s="32" t="n"/>
+    </row>
+    <row r="154" ht="12.8" customHeight="1" s="17">
+      <c r="C154" s="32" t="n"/>
+    </row>
+    <row r="155" ht="12.8" customHeight="1" s="17">
+      <c r="C155" s="32" t="n"/>
+    </row>
+    <row r="156" ht="12.8" customHeight="1" s="17">
+      <c r="C156" s="32" t="n"/>
+    </row>
+    <row r="157" ht="12.8" customHeight="1" s="17">
+      <c r="C157" s="32" t="n"/>
+    </row>
+    <row r="158" ht="12.8" customHeight="1" s="17">
+      <c r="C158" s="32" t="n"/>
+    </row>
+    <row r="159" ht="12.8" customHeight="1" s="17">
+      <c r="C159" s="32" t="n"/>
+    </row>
+    <row r="160" ht="12.8" customHeight="1" s="17">
+      <c r="C160" s="32" t="n"/>
+    </row>
+    <row r="161" ht="12.8" customHeight="1" s="17">
+      <c r="C161" s="32" t="n"/>
+    </row>
+    <row r="162" ht="12.8" customHeight="1" s="17">
+      <c r="C162" s="32" t="n"/>
+    </row>
+    <row r="163" ht="12.8" customHeight="1" s="17">
+      <c r="C163" s="32" t="n"/>
+    </row>
+    <row r="164" ht="12.8" customHeight="1" s="17">
+      <c r="C164" s="32" t="n"/>
+    </row>
+    <row r="165" ht="12.8" customHeight="1" s="17">
+      <c r="C165" s="32" t="n"/>
+    </row>
+    <row r="166" ht="12.8" customHeight="1" s="17">
+      <c r="C166" s="32" t="n"/>
+    </row>
+    <row r="167" ht="12.8" customHeight="1" s="17">
+      <c r="C167" s="32" t="n"/>
+    </row>
+    <row r="168" ht="12.8" customHeight="1" s="17">
+      <c r="C168" s="32" t="n"/>
+    </row>
+    <row r="169" ht="12.8" customHeight="1" s="17">
+      <c r="C169" s="32" t="n"/>
+    </row>
+    <row r="170" ht="12.8" customHeight="1" s="17">
+      <c r="C170" s="32" t="n"/>
+    </row>
+    <row r="171" ht="12.8" customHeight="1" s="17">
+      <c r="C171" s="32" t="n"/>
+    </row>
+    <row r="172" ht="12.8" customHeight="1" s="17">
+      <c r="C172" s="32" t="n"/>
+    </row>
+    <row r="173" ht="12.8" customHeight="1" s="17">
+      <c r="C173" s="32" t="n"/>
+    </row>
+    <row r="174" ht="12.8" customHeight="1" s="17">
+      <c r="C174" s="32" t="n"/>
+    </row>
+    <row r="175" ht="12.8" customHeight="1" s="17">
+      <c r="C175" s="32" t="n"/>
+    </row>
+    <row r="176" ht="12.8" customHeight="1" s="17">
+      <c r="C176" s="32" t="n"/>
+    </row>
+    <row r="177" ht="12.8" customHeight="1" s="17">
+      <c r="C177" s="32" t="n"/>
+    </row>
+    <row r="178" ht="12.8" customHeight="1" s="17">
+      <c r="C178" s="32" t="n"/>
+    </row>
+    <row r="179" ht="12.8" customHeight="1" s="17">
+      <c r="C179" s="32" t="n"/>
+    </row>
+    <row r="180" ht="12.8" customHeight="1" s="17">
+      <c r="C180" s="32" t="n"/>
+    </row>
+    <row r="181" ht="12.8" customHeight="1" s="17">
+      <c r="C181" s="32" t="n"/>
+    </row>
+    <row r="182" ht="12.8" customHeight="1" s="17">
+      <c r="C182" s="32" t="n"/>
+    </row>
+    <row r="183" ht="12.8" customHeight="1" s="17">
+      <c r="C183" s="32" t="n"/>
+    </row>
+    <row r="184" ht="12.8" customHeight="1" s="17">
+      <c r="C184" s="32" t="n"/>
+    </row>
+    <row r="185" ht="12.8" customHeight="1" s="17">
+      <c r="C185" s="32" t="n"/>
+    </row>
+    <row r="186" ht="12.8" customHeight="1" s="17">
+      <c r="C186" s="32" t="n"/>
+    </row>
+    <row r="187" ht="12.8" customHeight="1" s="17">
+      <c r="C187" s="32" t="n"/>
+    </row>
+    <row r="188" ht="12.8" customHeight="1" s="17">
+      <c r="C188" s="32" t="n"/>
+    </row>
+    <row r="189" ht="12.8" customHeight="1" s="17">
+      <c r="C189" s="32" t="n"/>
+    </row>
+    <row r="190" ht="12.8" customHeight="1" s="17">
+      <c r="C190" s="32" t="n"/>
+    </row>
+    <row r="191" ht="12.8" customHeight="1" s="17">
+      <c r="C191" s="32" t="n"/>
+    </row>
+    <row r="192" ht="12.8" customHeight="1" s="17">
+      <c r="C192" s="32" t="n"/>
+    </row>
+    <row r="193" ht="12.8" customHeight="1" s="17">
+      <c r="C193" s="32" t="n"/>
+    </row>
+    <row r="194" ht="12.8" customHeight="1" s="17">
+      <c r="C194" s="32" t="n"/>
+    </row>
+    <row r="195" ht="12.8" customHeight="1" s="17">
+      <c r="C195" s="32" t="n"/>
+    </row>
+    <row r="196" ht="12.8" customHeight="1" s="17">
+      <c r="C196" s="32" t="n"/>
+    </row>
+    <row r="197" ht="12.8" customHeight="1" s="17">
+      <c r="C197" s="32" t="n"/>
+    </row>
+    <row r="198" ht="12.8" customHeight="1" s="17">
+      <c r="C198" s="32" t="n"/>
+    </row>
+    <row r="199" ht="12.8" customHeight="1" s="17">
+      <c r="C199" s="32" t="n"/>
+    </row>
+    <row r="200" ht="12.8" customHeight="1" s="17">
+      <c r="C200" s="32" t="n"/>
+    </row>
+    <row r="201" ht="12.8" customHeight="1" s="17">
+      <c r="C201" s="32" t="n"/>
+    </row>
+    <row r="202" ht="12.8" customHeight="1" s="17">
+      <c r="C202" s="32" t="n"/>
+    </row>
+    <row r="203" ht="12.8" customHeight="1" s="17">
+      <c r="C203" s="32" t="n"/>
+    </row>
+    <row r="204" ht="12.8" customHeight="1" s="17">
+      <c r="C204" s="32" t="n"/>
+    </row>
+    <row r="205" ht="12.8" customHeight="1" s="17">
+      <c r="C205" s="32" t="n"/>
+    </row>
+    <row r="206" ht="12.8" customHeight="1" s="17">
+      <c r="C206" s="32" t="n"/>
+    </row>
+    <row r="207" ht="12.8" customHeight="1" s="17">
+      <c r="C207" s="32" t="n"/>
+    </row>
+    <row r="208" ht="12.8" customHeight="1" s="17">
+      <c r="C208" s="32" t="n"/>
+    </row>
+    <row r="209" ht="12.8" customHeight="1" s="17">
+      <c r="C209" s="32" t="n"/>
+    </row>
+    <row r="210" ht="12.8" customHeight="1" s="17">
+      <c r="C210" s="32" t="n"/>
+    </row>
+    <row r="211" ht="12.8" customHeight="1" s="17">
+      <c r="C211" s="32" t="n"/>
+    </row>
+    <row r="212" ht="12.8" customHeight="1" s="17">
+      <c r="C212" s="32" t="n"/>
+    </row>
+    <row r="213" ht="12.8" customHeight="1" s="17">
+      <c r="C213" s="32" t="n"/>
+    </row>
+    <row r="214" ht="12.8" customHeight="1" s="17">
+      <c r="C214" s="32" t="n"/>
+    </row>
+    <row r="215" ht="12.8" customHeight="1" s="17">
+      <c r="C215" s="32" t="n"/>
+    </row>
+    <row r="216" ht="12.8" customHeight="1" s="17">
+      <c r="C216" s="32" t="n"/>
+    </row>
+    <row r="217" ht="12.8" customHeight="1" s="17">
+      <c r="C217" s="32" t="n"/>
+    </row>
+    <row r="218" ht="12.8" customHeight="1" s="17">
+      <c r="C218" s="32" t="n"/>
+    </row>
+    <row r="219" ht="12.8" customHeight="1" s="17">
+      <c r="C219" s="32" t="n"/>
+    </row>
+    <row r="220" ht="12.8" customHeight="1" s="17">
+      <c r="C220" s="32" t="n"/>
+    </row>
+    <row r="221" ht="12.8" customHeight="1" s="17">
+      <c r="C221" s="32" t="n"/>
+    </row>
+    <row r="222" ht="12.8" customHeight="1" s="17">
+      <c r="C222" s="32" t="n"/>
+    </row>
+    <row r="223" ht="12.8" customHeight="1" s="17">
+      <c r="C223" s="32" t="n"/>
+    </row>
+    <row r="224" ht="12.8" customHeight="1" s="17">
+      <c r="C224" s="32" t="n"/>
+    </row>
+    <row r="225" ht="12.8" customHeight="1" s="17">
+      <c r="C225" s="32" t="n"/>
+    </row>
+    <row r="226" ht="12.8" customHeight="1" s="17">
+      <c r="C226" s="32" t="n"/>
+    </row>
+    <row r="227" ht="12.8" customHeight="1" s="17">
+      <c r="C227" s="32" t="n"/>
+    </row>
+    <row r="228" ht="12.8" customHeight="1" s="17">
+      <c r="C228" s="32" t="n"/>
+    </row>
+    <row r="229" ht="12.8" customHeight="1" s="17">
+      <c r="C229" s="32" t="n"/>
+    </row>
+    <row r="230" ht="12.8" customHeight="1" s="17">
+      <c r="C230" s="32" t="n"/>
+    </row>
+    <row r="231" ht="12.8" customHeight="1" s="17">
+      <c r="C231" s="32" t="n"/>
+    </row>
+    <row r="232" ht="12.8" customHeight="1" s="17">
+      <c r="C232" s="32" t="n"/>
+    </row>
+    <row r="233" ht="12.8" customHeight="1" s="17">
+      <c r="C233" s="32" t="n"/>
+    </row>
+    <row r="234" ht="12.8" customHeight="1" s="17">
+      <c r="C234" s="32" t="n"/>
+    </row>
+    <row r="235" ht="12.8" customHeight="1" s="17">
+      <c r="C235" s="32" t="n"/>
+    </row>
+    <row r="236" ht="12.8" customHeight="1" s="17">
+      <c r="C236" s="32" t="n"/>
+    </row>
+    <row r="237" ht="12.8" customHeight="1" s="17">
+      <c r="C237" s="32" t="n"/>
+    </row>
+    <row r="238" ht="12.8" customHeight="1" s="17">
+      <c r="C238" s="32" t="n"/>
+    </row>
+    <row r="239" ht="12.8" customHeight="1" s="17">
+      <c r="C239" s="32" t="n"/>
+    </row>
+    <row r="240" ht="12.8" customHeight="1" s="17">
+      <c r="C240" s="32" t="n"/>
+    </row>
+    <row r="241" ht="12.8" customHeight="1" s="17">
+      <c r="C241" s="32" t="n"/>
+    </row>
+    <row r="242" ht="12.8" customHeight="1" s="17">
+      <c r="C242" s="32" t="n"/>
+    </row>
+    <row r="243" ht="12.8" customHeight="1" s="17">
+      <c r="C243" s="32" t="n"/>
+    </row>
+    <row r="244" ht="12.8" customHeight="1" s="17">
+      <c r="C244" s="32" t="n"/>
+    </row>
+    <row r="245" ht="12.8" customHeight="1" s="17">
+      <c r="C245" s="32" t="n"/>
+    </row>
+    <row r="246" ht="12.8" customHeight="1" s="17">
+      <c r="C246" s="32" t="n"/>
+    </row>
+    <row r="247" ht="12.8" customHeight="1" s="17">
+      <c r="C247" s="32" t="n"/>
+    </row>
+    <row r="248" ht="12.8" customHeight="1" s="17">
+      <c r="C248" s="32" t="n"/>
+    </row>
+    <row r="249" ht="12.8" customHeight="1" s="17">
+      <c r="C249" s="32" t="n"/>
+    </row>
+    <row r="250" ht="12.8" customHeight="1" s="17">
+      <c r="C250" s="32" t="n"/>
+    </row>
+    <row r="251" ht="12.8" customHeight="1" s="17">
+      <c r="C251" s="32" t="n"/>
+    </row>
+    <row r="252" ht="12.8" customHeight="1" s="17">
+      <c r="C252" s="32" t="n"/>
+    </row>
+    <row r="253" ht="12.8" customHeight="1" s="17">
+      <c r="C253" s="32" t="n"/>
+    </row>
+    <row r="254" ht="12.8" customHeight="1" s="17">
+      <c r="C254" s="32" t="n"/>
+    </row>
+    <row r="255" ht="12.8" customHeight="1" s="17">
+      <c r="C255" s="32" t="n"/>
+    </row>
+    <row r="256" ht="12.8" customHeight="1" s="17">
+      <c r="C256" s="32" t="n"/>
+    </row>
+    <row r="257" ht="12.8" customHeight="1" s="17">
+      <c r="C257" s="32" t="n"/>
+    </row>
+    <row r="258" ht="12.8" customHeight="1" s="17">
+      <c r="C258" s="32" t="n"/>
+    </row>
+    <row r="259" ht="12.8" customHeight="1" s="17">
+      <c r="C259" s="32" t="n"/>
+    </row>
+    <row r="260" ht="12.8" customHeight="1" s="17">
+      <c r="C260" s="32" t="n"/>
+    </row>
+    <row r="261" ht="12.8" customHeight="1" s="17">
+      <c r="C261" s="32" t="n"/>
+    </row>
+    <row r="262" ht="12.8" customHeight="1" s="17">
+      <c r="C262" s="32" t="n"/>
+    </row>
+    <row r="263" ht="12.8" customHeight="1" s="17">
+      <c r="C263" s="32" t="n"/>
+    </row>
+    <row r="264" ht="12.8" customHeight="1" s="17">
+      <c r="C264" s="32" t="n"/>
+    </row>
+    <row r="265" ht="12.8" customHeight="1" s="17">
+      <c r="C265" s="32" t="n"/>
+    </row>
+    <row r="266" ht="12.8" customHeight="1" s="17">
+      <c r="C266" s="32" t="n"/>
+    </row>
+    <row r="267" ht="12.8" customHeight="1" s="17">
+      <c r="C267" s="32" t="n"/>
+    </row>
+    <row r="268" ht="12.8" customHeight="1" s="17">
+      <c r="C268" s="32" t="n"/>
+    </row>
+    <row r="269" ht="12.8" customHeight="1" s="17">
+      <c r="C269" s="32" t="n"/>
+    </row>
+    <row r="270" ht="12.8" customHeight="1" s="17">
+      <c r="C270" s="32" t="n"/>
+    </row>
+    <row r="271" ht="12.8" customHeight="1" s="17">
+      <c r="C271" s="32" t="n"/>
+    </row>
+    <row r="272" ht="12.8" customHeight="1" s="17">
+      <c r="C272" s="32" t="n"/>
+    </row>
+    <row r="273" ht="12.8" customHeight="1" s="17">
+      <c r="C273" s="32" t="n"/>
+    </row>
+    <row r="274" ht="12.8" customHeight="1" s="17">
+      <c r="C274" s="32" t="n"/>
+    </row>
+    <row r="275" ht="12.8" customHeight="1" s="17">
+      <c r="C275" s="32" t="n"/>
+    </row>
+    <row r="276" ht="12.8" customHeight="1" s="17">
+      <c r="C276" s="32" t="n"/>
+    </row>
+    <row r="277" ht="12.8" customHeight="1" s="17">
+      <c r="C277" s="32" t="n"/>
+    </row>
+    <row r="278" ht="12.8" customHeight="1" s="17">
+      <c r="C278" s="32" t="n"/>
+    </row>
+    <row r="279" ht="12.8" customHeight="1" s="17">
+      <c r="C279" s="32" t="n"/>
+    </row>
+    <row r="280" ht="12.8" customHeight="1" s="17">
+      <c r="C280" s="32" t="n"/>
+    </row>
+    <row r="281" ht="12.8" customHeight="1" s="17">
+      <c r="C281" s="32" t="n"/>
+    </row>
+    <row r="282" ht="12.8" customHeight="1" s="17">
+      <c r="C282" s="32" t="n"/>
+    </row>
+    <row r="283" ht="12.8" customHeight="1" s="17">
+      <c r="C283" s="32" t="n"/>
+    </row>
+    <row r="284" ht="12.8" customHeight="1" s="17">
+      <c r="C284" s="32" t="n"/>
+    </row>
+    <row r="285" ht="12.8" customHeight="1" s="17">
+      <c r="C285" s="32" t="n"/>
+    </row>
+    <row r="286" ht="12.8" customHeight="1" s="17">
+      <c r="C286" s="32" t="n"/>
+    </row>
+    <row r="287" ht="12.8" customHeight="1" s="17">
+      <c r="C287" s="32" t="n"/>
+    </row>
+    <row r="288" ht="12.8" customHeight="1" s="17">
+      <c r="C288" s="32" t="n"/>
+    </row>
+    <row r="289" ht="12.8" customHeight="1" s="17">
+      <c r="C289" s="32" t="n"/>
+    </row>
+    <row r="290" ht="12.8" customHeight="1" s="17">
+      <c r="C290" s="32" t="n"/>
+    </row>
+    <row r="291" ht="12.8" customHeight="1" s="17">
+      <c r="C291" s="32" t="n"/>
+    </row>
+    <row r="292" ht="12.8" customHeight="1" s="17">
+      <c r="C292" s="32" t="n"/>
+    </row>
+    <row r="293" ht="12.8" customHeight="1" s="17">
+      <c r="C293" s="32" t="n"/>
+    </row>
+    <row r="294" ht="12.8" customHeight="1" s="17">
+      <c r="C294" s="32" t="n"/>
+    </row>
+    <row r="295" ht="12.8" customHeight="1" s="17">
+      <c r="C295" s="32" t="n"/>
+    </row>
+    <row r="296" ht="12.8" customHeight="1" s="17">
+      <c r="C296" s="32" t="n"/>
+    </row>
+    <row r="297" ht="12.8" customHeight="1" s="17">
+      <c r="C297" s="32" t="n"/>
+    </row>
+    <row r="298" ht="12.8" customHeight="1" s="17">
+      <c r="C298" s="32" t="n"/>
+    </row>
+    <row r="299" ht="12.8" customHeight="1" s="17">
+      <c r="C299" s="32" t="n"/>
+    </row>
+    <row r="300" ht="12.8" customHeight="1" s="17">
+      <c r="C300" s="32" t="n"/>
+    </row>
+    <row r="301" ht="12.8" customHeight="1" s="17">
+      <c r="C301" s="32" t="n"/>
+    </row>
+    <row r="302" ht="12.8" customHeight="1" s="17">
+      <c r="C302" s="32" t="n"/>
+    </row>
+    <row r="303" ht="12.8" customHeight="1" s="17">
+      <c r="C303" s="32" t="n"/>
+    </row>
+    <row r="304" ht="12.8" customHeight="1" s="17">
+      <c r="C304" s="32" t="n"/>
+    </row>
+    <row r="305" ht="12.8" customHeight="1" s="17">
+      <c r="C305" s="32" t="n"/>
+    </row>
+    <row r="306" ht="12.8" customHeight="1" s="17">
+      <c r="C306" s="32" t="n"/>
+    </row>
+    <row r="307" ht="12.8" customHeight="1" s="17">
+      <c r="C307" s="32" t="n"/>
+    </row>
+    <row r="308" ht="12.8" customHeight="1" s="17">
+      <c r="C308" s="32" t="n"/>
+    </row>
+    <row r="309" ht="12.8" customHeight="1" s="17">
+      <c r="C309" s="32" t="n"/>
+    </row>
+    <row r="310" ht="12.8" customHeight="1" s="17">
+      <c r="C310" s="32" t="n"/>
+    </row>
+    <row r="311" ht="12.8" customHeight="1" s="17">
+      <c r="C311" s="32" t="n"/>
+    </row>
+    <row r="312" ht="12.8" customHeight="1" s="17">
+      <c r="C312" s="32" t="n"/>
+    </row>
+    <row r="313" ht="12.8" customHeight="1" s="17">
+      <c r="C313" s="32" t="n"/>
+    </row>
+    <row r="314" ht="12.8" customHeight="1" s="17">
+      <c r="C314" s="32" t="n"/>
+    </row>
+    <row r="315" ht="12.8" customHeight="1" s="17">
+      <c r="C315" s="32" t="n"/>
+    </row>
+    <row r="316" ht="12.8" customHeight="1" s="17">
+      <c r="C316" s="32" t="n"/>
+    </row>
+    <row r="317" ht="12.8" customHeight="1" s="17">
+      <c r="C317" s="32" t="n"/>
+    </row>
+    <row r="318" ht="12.8" customHeight="1" s="17">
+      <c r="C318" s="32" t="n"/>
+    </row>
+    <row r="319" ht="12.8" customHeight="1" s="17">
+      <c r="C319" s="32" t="n"/>
+    </row>
+    <row r="1048572" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048573" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048574" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048575" ht="12.8" customHeight="1" s="17"/>
+    <row r="1048576" ht="12.8" customHeight="1" s="17"/>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="35" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+</worksheet>
 </file>